--- a/bin/2d_s_cc/reorganized exp.data.xlsx
+++ b/bin/2d_s_cc/reorganized exp.data.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="75" windowWidth="17235" windowHeight="8955" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="75" windowWidth="17235" windowHeight="8955" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Wang&amp;Chung2008CES" sheetId="1" r:id="rId1"/>
     <sheet name="Yao2016(preparing)" sheetId="2" r:id="rId2"/>
-    <sheet name="ExpData" sheetId="3" r:id="rId3"/>
-    <sheet name="SimRecords" sheetId="4" r:id="rId4"/>
-    <sheet name="Origin exporter" sheetId="5" r:id="rId5"/>
+    <sheet name="ExpData160515" sheetId="3" r:id="rId3"/>
+    <sheet name="ExpData161130" sheetId="6" r:id="rId4"/>
+    <sheet name="SimRecords" sheetId="4" r:id="rId5"/>
+    <sheet name="Origin exporter" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="MOD1H">'Yao2016(preparing)'!$C$17</definedName>
@@ -262,174 +264,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="209">
   <si>
     <t>Wang K Y, Chung T S, Gryta M. Chem. Eng. Sci., 2008, 63: 2587-2594</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Hollow fiber</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Main content</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PVDF</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Performances</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Membrane area</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cm2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Packing density</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Active layer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Outside the fiber</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Hot feed side at</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Shell side</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Flow pattern</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Co-current</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Feed concentration</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>%</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>wt% (NaCl)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>OD of fibers</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ID of fibers</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>um</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Thickness of active layer</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>nm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Length</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cm</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Membrane specifications</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Module specifications</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Housing ID</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>in ca.</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Porosity</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PVDF/NMP/EG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>PVDF/NMP</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Contact angle</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Effective pore size</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>0.15-0.18</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Operating conditions</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Inlet flowrate</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Inlet temperatures</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Permeate side</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Feed side</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Number of fibers</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -445,27 +447,27 @@
       </rPr>
       <t>/s</t>
     </r>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>m/s</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Permeation flux</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>kg/m2-h</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Feed-side outlet temperature</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Permeate-side outlet temperature</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>Flat sheet</t>
@@ -805,21 +807,200 @@
   </si>
   <si>
     <t>Linearly corr. MDC</t>
+  </si>
+  <si>
+    <t>Membrane</t>
+  </si>
+  <si>
+    <t>Membrane area</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cross section area</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original concentration</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feed revolution</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Permeate revolution</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tpin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tpout</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tfin</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tfout</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Measured flux(g/s)</t>
+  </si>
+  <si>
+    <t>std</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flux</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>stdev.Flux</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flux</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comments</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>cm2</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/l</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>rpm</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>℃</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/s</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/m2 h</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/m3 h</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wetting</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2ePTFE</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Exp.1.0</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>#2ePTFE</t>
+  </si>
+  <si>
+    <t>Rotated array</t>
+  </si>
+  <si>
+    <t>Copied data</t>
+  </si>
+  <si>
+    <t>#3PVDF</t>
+  </si>
+  <si>
+    <t>#1PTFE</t>
+  </si>
+  <si>
+    <t>Cross section area</t>
+  </si>
+  <si>
+    <t>Original concentration</t>
+  </si>
+  <si>
+    <t>g/l</t>
+  </si>
+  <si>
+    <t>Feed revolution</t>
+  </si>
+  <si>
+    <t>Permeate revolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Tpin</t>
+  </si>
+  <si>
+    <t>℃</t>
+  </si>
+  <si>
+    <t>Tpout</t>
+  </si>
+  <si>
+    <t>Tfin</t>
+  </si>
+  <si>
+    <t>Tfout</t>
+  </si>
+  <si>
+    <t>g/s</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>Flux</t>
+  </si>
+  <si>
+    <t>kg/m2 h</t>
+  </si>
+  <si>
+    <t>Brine concentration (g/L)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -974,8 +1155,25 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1028,8 +1226,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1147,93 +1362,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="10">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="4" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="5">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="5" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="5" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1245,58 +1522,58 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -1332,29 +1609,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="1" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="8" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="9" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="9" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="8" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="12" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="13" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="11" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="11" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="11" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="11" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="12" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="9"/>
+    <xf numFmtId="165" fontId="19" fillId="0" borderId="2" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="2" xfId="9" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="18" fillId="8" borderId="1" xfId="8" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="14">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
     <cellStyle name="20% - Accent2" xfId="3" builtinId="34"/>
     <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
@@ -1362,9 +1668,13 @@
     <cellStyle name="20% - Accent6" xfId="6" builtinId="50"/>
     <cellStyle name="Calculation" xfId="8" builtinId="22"/>
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8"/>
     <cellStyle name="Input" xfId="7" builtinId="20"/>
     <cellStyle name="Linked Cell" xfId="9" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
+    <cellStyle name="Normal 2" xfId="11"/>
+    <cellStyle name="常规 2" xfId="10"/>
+    <cellStyle name="注释 2" xfId="13"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1381,7 +1691,1162 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-SG"/>
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>Flux-conc.</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpData161130!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3PVDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExpData161130!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.566000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.60266666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211.26733333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.44509999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExpData161130!$M$3:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0019625728000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4134104959999991</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.462614592</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0054249984000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1545233151999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpData161130!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#1PTFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExpData161130!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.53543333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.39226666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.26166666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExpData161130!$M$9:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.2218308607999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8030695167999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5553173503999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24622156800000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpData161130!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#2ePTFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExpData161130!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.566000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.60266666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.26733333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281.44509999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExpData161130!$M$15:$M$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10.728884735999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7713711627906985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5270333439999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0934241280000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32185294698240002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="82282368"/>
+        <c:axId val="82297216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="82282368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>concentration(g/l)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82297216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="82297216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>fkux(kg/m2 h)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="82282368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>dimensionless</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" baseline="0"/>
+              <a:t> flux-conc.</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpData161130!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#3PVDF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExpData161130!$D$3:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>69.566000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.60266666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211.26733333333334</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.44509999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExpData161130!$O$3:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.97040255071693671</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85622088137334484</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.67176232994993212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58306555516732339</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpData161130!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#1PTFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExpData161130!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.53543333333333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.39226666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.26166666666666</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExpData161130!$O$9:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66394642732533415</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.36839878282221866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.8321040353886466E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ExpData161130!$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#2ePTFE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ExpData161130!$D$15:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.566000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.60266666666666</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>211.26733333333334</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>281.44509999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ExpData161130!$O$15:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63113467330577711</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51515450859998868</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.28832671839788143</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9998732850810266E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="83044992"/>
+        <c:axId val="83075840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="83044992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>concentration(g/l)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83075840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="83075840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>flux</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="83044992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
@@ -1434,23 +2899,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="204928896"/>
-        <c:axId val="204930432"/>
+        <c:axId val="220805376"/>
+        <c:axId val="221507584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204928896"/>
+        <c:axId val="220805376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204930432"/>
+        <c:crossAx val="221507584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204930432"/>
+        <c:axId val="221507584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1458,7 +2923,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204928896"/>
+        <c:crossAx val="220805376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1472,13 +2937,78 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2441,6 +3971,913 @@
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Primary result"/>
+      <sheetName val="eff.concentration"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>#3PVDF</v>
+          </cell>
+          <cell r="D2">
+            <v>31.25</v>
+          </cell>
+          <cell r="E2">
+            <v>3</v>
+          </cell>
+          <cell r="F2">
+            <v>69.56</v>
+          </cell>
+          <cell r="I2">
+            <v>98</v>
+          </cell>
+          <cell r="J2">
+            <v>94</v>
+          </cell>
+          <cell r="K2">
+            <v>20.023534000000001</v>
+          </cell>
+          <cell r="L2">
+            <v>20.330677000000001</v>
+          </cell>
+          <cell r="M2">
+            <v>46.782744000000001</v>
+          </cell>
+          <cell r="N2">
+            <v>45.384247999999999</v>
+          </cell>
+          <cell r="O2">
+            <v>4.2887860000000002E-3</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="D3">
+            <v>31.25</v>
+          </cell>
+          <cell r="E3">
+            <v>3</v>
+          </cell>
+          <cell r="F3">
+            <v>69.582999999999998</v>
+          </cell>
+          <cell r="I3">
+            <v>98</v>
+          </cell>
+          <cell r="J3">
+            <v>94</v>
+          </cell>
+          <cell r="K3">
+            <v>19.961779</v>
+          </cell>
+          <cell r="L3">
+            <v>20.553080999999999</v>
+          </cell>
+          <cell r="M3">
+            <v>46.723261999999998</v>
+          </cell>
+          <cell r="N3">
+            <v>45.772125000000003</v>
+          </cell>
+          <cell r="O3">
+            <v>4.1537654000000004E-3</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="D4">
+            <v>31.25</v>
+          </cell>
+          <cell r="E4">
+            <v>3</v>
+          </cell>
+          <cell r="F4">
+            <v>69.555000000000007</v>
+          </cell>
+          <cell r="I4">
+            <v>98</v>
+          </cell>
+          <cell r="J4">
+            <v>94</v>
+          </cell>
+          <cell r="K4">
+            <v>20.009757</v>
+          </cell>
+          <cell r="L4">
+            <v>20.300325999999998</v>
+          </cell>
+          <cell r="M4">
+            <v>46.856329000000002</v>
+          </cell>
+          <cell r="N4">
+            <v>46.079579000000003</v>
+          </cell>
+          <cell r="O4">
+            <v>4.5833927999999998E-3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>#3PVDF</v>
+          </cell>
+          <cell r="D5">
+            <v>31.25</v>
+          </cell>
+          <cell r="E5">
+            <v>3</v>
+          </cell>
+          <cell r="F5">
+            <v>141.63900000000001</v>
+          </cell>
+          <cell r="I5">
+            <v>98</v>
+          </cell>
+          <cell r="J5">
+            <v>94</v>
+          </cell>
+          <cell r="K5">
+            <v>19.977509999999999</v>
+          </cell>
+          <cell r="L5">
+            <v>20.563821999999998</v>
+          </cell>
+          <cell r="M5">
+            <v>46.763052000000002</v>
+          </cell>
+          <cell r="N5">
+            <v>45.729216999999998</v>
+          </cell>
+          <cell r="O5">
+            <v>3.827249E-3</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6">
+            <v>31.25</v>
+          </cell>
+          <cell r="E6">
+            <v>3</v>
+          </cell>
+          <cell r="F6">
+            <v>141.63900000000001</v>
+          </cell>
+          <cell r="I6">
+            <v>98</v>
+          </cell>
+          <cell r="J6">
+            <v>94</v>
+          </cell>
+          <cell r="K6">
+            <v>19.965447999999999</v>
+          </cell>
+          <cell r="L6">
+            <v>20.722349000000001</v>
+          </cell>
+          <cell r="M6">
+            <v>46.917642000000001</v>
+          </cell>
+          <cell r="N6">
+            <v>46.077421999999999</v>
+          </cell>
+          <cell r="O6">
+            <v>3.5529122000000002E-3</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7">
+            <v>31.25</v>
+          </cell>
+          <cell r="E7">
+            <v>3</v>
+          </cell>
+          <cell r="F7">
+            <v>141.53</v>
+          </cell>
+          <cell r="I7">
+            <v>98</v>
+          </cell>
+          <cell r="J7">
+            <v>94</v>
+          </cell>
+          <cell r="K7">
+            <v>20.119669999999999</v>
+          </cell>
+          <cell r="L7">
+            <v>20.834351999999999</v>
+          </cell>
+          <cell r="M7">
+            <v>47.236775999999999</v>
+          </cell>
+          <cell r="N7">
+            <v>46.041201000000001</v>
+          </cell>
+          <cell r="O7">
+            <v>4.1130953000000003E-3</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>#3PVDF</v>
+          </cell>
+          <cell r="D8">
+            <v>31.25</v>
+          </cell>
+          <cell r="E8">
+            <v>3</v>
+          </cell>
+          <cell r="F8">
+            <v>211.28200000000001</v>
+          </cell>
+          <cell r="I8">
+            <v>98</v>
+          </cell>
+          <cell r="J8">
+            <v>94</v>
+          </cell>
+          <cell r="K8">
+            <v>19.823257999999999</v>
+          </cell>
+          <cell r="L8">
+            <v>20.711842999999998</v>
+          </cell>
+          <cell r="M8">
+            <v>46.731850999999999</v>
+          </cell>
+          <cell r="N8">
+            <v>45.548782000000003</v>
+          </cell>
+          <cell r="O8">
+            <v>3.0110521999999998E-3</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9">
+            <v>31.25</v>
+          </cell>
+          <cell r="E9">
+            <v>3</v>
+          </cell>
+          <cell r="F9">
+            <v>211.26</v>
+          </cell>
+          <cell r="I9">
+            <v>98</v>
+          </cell>
+          <cell r="J9">
+            <v>94</v>
+          </cell>
+          <cell r="K9">
+            <v>19.896543999999999</v>
+          </cell>
+          <cell r="L9">
+            <v>20.531760999999999</v>
+          </cell>
+          <cell r="M9">
+            <v>46.819569999999999</v>
+          </cell>
+          <cell r="N9">
+            <v>45.754741000000003</v>
+          </cell>
+          <cell r="O9">
+            <v>2.8766769999999998E-3</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="D10">
+            <v>31.25</v>
+          </cell>
+          <cell r="E10">
+            <v>3</v>
+          </cell>
+          <cell r="F10">
+            <v>211.26</v>
+          </cell>
+          <cell r="I10">
+            <v>98</v>
+          </cell>
+          <cell r="J10">
+            <v>94</v>
+          </cell>
+          <cell r="K10">
+            <v>19.869620000000001</v>
+          </cell>
+          <cell r="L10">
+            <v>20.607797000000001</v>
+          </cell>
+          <cell r="M10">
+            <v>46.998632999999998</v>
+          </cell>
+          <cell r="N10">
+            <v>45.856709000000002</v>
+          </cell>
+          <cell r="O10">
+            <v>3.1294962999999999E-3</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v>#3PVDF</v>
+          </cell>
+          <cell r="D11">
+            <v>31.25</v>
+          </cell>
+          <cell r="E11">
+            <v>3</v>
+          </cell>
+          <cell r="F11">
+            <v>281.40530000000001</v>
+          </cell>
+          <cell r="I11">
+            <v>98</v>
+          </cell>
+          <cell r="J11">
+            <v>94</v>
+          </cell>
+          <cell r="K11">
+            <v>20.181401999999999</v>
+          </cell>
+          <cell r="L11">
+            <v>20.785309999999999</v>
+          </cell>
+          <cell r="M11">
+            <v>47.187331999999998</v>
+          </cell>
+          <cell r="N11">
+            <v>45.896833000000001</v>
+          </cell>
+          <cell r="O11">
+            <v>2.5719582000000001E-3</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>31.25</v>
+          </cell>
+          <cell r="E12">
+            <v>3</v>
+          </cell>
+          <cell r="F12">
+            <v>281.471</v>
+          </cell>
+          <cell r="I12">
+            <v>98</v>
+          </cell>
+          <cell r="J12">
+            <v>94</v>
+          </cell>
+          <cell r="K12">
+            <v>20.077441</v>
+          </cell>
+          <cell r="L12">
+            <v>20.739701</v>
+          </cell>
+          <cell r="M12">
+            <v>46.731257999999997</v>
+          </cell>
+          <cell r="N12">
+            <v>45.470703999999998</v>
+          </cell>
+          <cell r="O12">
+            <v>2.6025496999999998E-3</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>31.25</v>
+          </cell>
+          <cell r="E13">
+            <v>3</v>
+          </cell>
+          <cell r="F13">
+            <v>281.459</v>
+          </cell>
+          <cell r="I13">
+            <v>98</v>
+          </cell>
+          <cell r="J13">
+            <v>94</v>
+          </cell>
+          <cell r="K13">
+            <v>20.086855</v>
+          </cell>
+          <cell r="L13">
+            <v>20.706842999999999</v>
+          </cell>
+          <cell r="M13">
+            <v>46.803511</v>
+          </cell>
+          <cell r="N13">
+            <v>45.908102999999997</v>
+          </cell>
+          <cell r="O13">
+            <v>2.6521196999999999E-3</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>#3PVDF</v>
+          </cell>
+          <cell r="D14">
+            <v>31.25</v>
+          </cell>
+          <cell r="E14">
+            <v>3</v>
+          </cell>
+          <cell r="F14">
+            <v>0</v>
+          </cell>
+          <cell r="I14">
+            <v>98</v>
+          </cell>
+          <cell r="J14">
+            <v>94</v>
+          </cell>
+          <cell r="K14">
+            <v>19.836213000000001</v>
+          </cell>
+          <cell r="L14">
+            <v>20.75882</v>
+          </cell>
+          <cell r="M14">
+            <v>47.171384000000003</v>
+          </cell>
+          <cell r="N14">
+            <v>45.864080000000001</v>
+          </cell>
+          <cell r="O14">
+            <v>4.6617307999999996E-3</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>31.25</v>
+          </cell>
+          <cell r="E15">
+            <v>3</v>
+          </cell>
+          <cell r="F15">
+            <v>0</v>
+          </cell>
+          <cell r="I15">
+            <v>98</v>
+          </cell>
+          <cell r="J15">
+            <v>94</v>
+          </cell>
+          <cell r="K15">
+            <v>19.928771999999999</v>
+          </cell>
+          <cell r="L15">
+            <v>20.816649999999999</v>
+          </cell>
+          <cell r="M15">
+            <v>46.916454999999999</v>
+          </cell>
+          <cell r="N15">
+            <v>45.563493999999999</v>
+          </cell>
+          <cell r="O15">
+            <v>4.4279022999999997E-3</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>31.25</v>
+          </cell>
+          <cell r="E16">
+            <v>3</v>
+          </cell>
+          <cell r="F16">
+            <v>0</v>
+          </cell>
+          <cell r="I16">
+            <v>98</v>
+          </cell>
+          <cell r="J16">
+            <v>94</v>
+          </cell>
+          <cell r="K16">
+            <v>19.902256999999999</v>
+          </cell>
+          <cell r="L16">
+            <v>20.685841</v>
+          </cell>
+          <cell r="M16">
+            <v>46.735602</v>
+          </cell>
+          <cell r="N16">
+            <v>45.466107999999998</v>
+          </cell>
+          <cell r="O16">
+            <v>4.3336047000000003E-3</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17" t="str">
+            <v>#1PTFE</v>
+          </cell>
+          <cell r="D17">
+            <v>31.25</v>
+          </cell>
+          <cell r="E17">
+            <v>3</v>
+          </cell>
+          <cell r="F17">
+            <v>0</v>
+          </cell>
+          <cell r="I17">
+            <v>98</v>
+          </cell>
+          <cell r="J17">
+            <v>94</v>
+          </cell>
+          <cell r="K17">
+            <v>19.995996999999999</v>
+          </cell>
+          <cell r="L17">
+            <v>21.146885000000001</v>
+          </cell>
+          <cell r="M17">
+            <v>46.932158999999999</v>
+          </cell>
+          <cell r="N17">
+            <v>45.428068000000003</v>
+          </cell>
+          <cell r="O17">
+            <v>3.9783984000000003E-3</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>31.25</v>
+          </cell>
+          <cell r="E18">
+            <v>3</v>
+          </cell>
+          <cell r="F18">
+            <v>0</v>
+          </cell>
+          <cell r="I18">
+            <v>98</v>
+          </cell>
+          <cell r="J18">
+            <v>94</v>
+          </cell>
+          <cell r="K18">
+            <v>19.924395000000001</v>
+          </cell>
+          <cell r="L18">
+            <v>21.081990999999999</v>
+          </cell>
+          <cell r="M18">
+            <v>46.710863000000003</v>
+          </cell>
+          <cell r="N18">
+            <v>45.227260999999999</v>
+          </cell>
+          <cell r="O18">
+            <v>2.8882195000000002E-3</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>31.25</v>
+          </cell>
+          <cell r="E19">
+            <v>3</v>
+          </cell>
+          <cell r="F19">
+            <v>0</v>
+          </cell>
+          <cell r="I19">
+            <v>98</v>
+          </cell>
+          <cell r="J19">
+            <v>94</v>
+          </cell>
+          <cell r="K19">
+            <v>19.924524999999999</v>
+          </cell>
+          <cell r="L19">
+            <v>20.953102999999999</v>
+          </cell>
+          <cell r="M19">
+            <v>47.082920999999999</v>
+          </cell>
+          <cell r="N19">
+            <v>45.857165999999999</v>
+          </cell>
+          <cell r="O19">
+            <v>4.1277333000000003E-3</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20" t="str">
+            <v>#1PTFE</v>
+          </cell>
+          <cell r="D20">
+            <v>31.25</v>
+          </cell>
+          <cell r="E20">
+            <v>3</v>
+          </cell>
+          <cell r="F20">
+            <v>69.500299999999996</v>
+          </cell>
+          <cell r="I20">
+            <v>98</v>
+          </cell>
+          <cell r="J20">
+            <v>94</v>
+          </cell>
+          <cell r="K20">
+            <v>19.915969</v>
+          </cell>
+          <cell r="L20">
+            <v>21.026779999999999</v>
+          </cell>
+          <cell r="M20">
+            <v>46.834726000000003</v>
+          </cell>
+          <cell r="N20">
+            <v>45.462305999999998</v>
+          </cell>
+          <cell r="O20">
+            <v>2.6051859999999998E-3</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>31.25</v>
+          </cell>
+          <cell r="E21">
+            <v>3</v>
+          </cell>
+          <cell r="F21">
+            <v>69.552999999999997</v>
+          </cell>
+          <cell r="I21">
+            <v>98</v>
+          </cell>
+          <cell r="J21">
+            <v>94</v>
+          </cell>
+          <cell r="K21">
+            <v>19.858008000000002</v>
+          </cell>
+          <cell r="L21">
+            <v>20.868282000000001</v>
+          </cell>
+          <cell r="M21">
+            <v>46.724566000000003</v>
+          </cell>
+          <cell r="N21">
+            <v>45.511439000000003</v>
+          </cell>
+          <cell r="O21">
+            <v>2.3730052000000001E-3</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>31.25</v>
+          </cell>
+          <cell r="E22">
+            <v>3</v>
+          </cell>
+          <cell r="F22">
+            <v>69.552999999999997</v>
+          </cell>
+          <cell r="I22">
+            <v>98</v>
+          </cell>
+          <cell r="J22">
+            <v>94</v>
+          </cell>
+          <cell r="K22">
+            <v>19.912194</v>
+          </cell>
+          <cell r="L22">
+            <v>20.765387</v>
+          </cell>
+          <cell r="M22">
+            <v>47.055352999999997</v>
+          </cell>
+          <cell r="N22">
+            <v>45.517465999999999</v>
+          </cell>
+          <cell r="O22">
+            <v>2.321469E-3</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23" t="str">
+            <v>#1PTFE</v>
+          </cell>
+          <cell r="D23">
+            <v>31.25</v>
+          </cell>
+          <cell r="E23">
+            <v>3</v>
+          </cell>
+          <cell r="F23">
+            <v>141.0703</v>
+          </cell>
+          <cell r="I23">
+            <v>98</v>
+          </cell>
+          <cell r="J23">
+            <v>94</v>
+          </cell>
+          <cell r="K23">
+            <v>19.992736000000001</v>
+          </cell>
+          <cell r="L23">
+            <v>20.890882000000001</v>
+          </cell>
+          <cell r="M23">
+            <v>46.846423999999999</v>
+          </cell>
+          <cell r="N23">
+            <v>45.546548000000001</v>
+          </cell>
+          <cell r="O23">
+            <v>1.4326702000000001E-3</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>31.25</v>
+          </cell>
+          <cell r="E24">
+            <v>3</v>
+          </cell>
+          <cell r="F24">
+            <v>141.5565</v>
+          </cell>
+          <cell r="I24">
+            <v>98</v>
+          </cell>
+          <cell r="J24">
+            <v>94</v>
+          </cell>
+          <cell r="K24">
+            <v>20.009806999999999</v>
+          </cell>
+          <cell r="L24">
+            <v>20.899156000000001</v>
+          </cell>
+          <cell r="M24">
+            <v>46.633228000000003</v>
+          </cell>
+          <cell r="N24">
+            <v>45.166559999999997</v>
+          </cell>
+          <cell r="O24">
+            <v>1.4049126999999999E-3</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>31.25</v>
+          </cell>
+          <cell r="E25">
+            <v>3</v>
+          </cell>
+          <cell r="F25">
+            <v>141.55000000000001</v>
+          </cell>
+          <cell r="I25">
+            <v>98</v>
+          </cell>
+          <cell r="J25">
+            <v>94</v>
+          </cell>
+          <cell r="K25">
+            <v>19.692053999999999</v>
+          </cell>
+          <cell r="L25">
+            <v>20.420978000000002</v>
+          </cell>
+          <cell r="M25">
+            <v>46.850340000000003</v>
+          </cell>
+          <cell r="N25">
+            <v>45.804163000000003</v>
+          </cell>
+          <cell r="O25">
+            <v>1.2127227000000001E-3</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26" t="str">
+            <v>#1PTFE</v>
+          </cell>
+          <cell r="D26">
+            <v>31.25</v>
+          </cell>
+          <cell r="E26">
+            <v>3</v>
+          </cell>
+          <cell r="F26">
+            <v>211.26499999999999</v>
+          </cell>
+          <cell r="I26">
+            <v>98</v>
+          </cell>
+          <cell r="J26">
+            <v>94</v>
+          </cell>
+          <cell r="K26">
+            <v>19.941050000000001</v>
+          </cell>
+          <cell r="L26">
+            <v>20.574325999999999</v>
+          </cell>
+          <cell r="M26">
+            <v>47.140931000000002</v>
+          </cell>
+          <cell r="N26">
+            <v>46.083371999999997</v>
+          </cell>
+          <cell r="O26">
+            <v>2.0173270000000001E-4</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>31.25</v>
+          </cell>
+          <cell r="E27">
+            <v>3</v>
+          </cell>
+          <cell r="F27">
+            <v>211.26499999999999</v>
+          </cell>
+          <cell r="I27">
+            <v>98</v>
+          </cell>
+          <cell r="J27">
+            <v>94</v>
+          </cell>
+          <cell r="K27">
+            <v>20.155515999999999</v>
+          </cell>
+          <cell r="L27">
+            <v>20.893260999999999</v>
+          </cell>
+          <cell r="M27">
+            <v>47.622903999999998</v>
+          </cell>
+          <cell r="N27">
+            <v>46.149971000000001</v>
+          </cell>
+          <cell r="O27">
+            <v>3.2753779999999998E-4</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>31.25</v>
+          </cell>
+          <cell r="E28">
+            <v>3</v>
+          </cell>
+          <cell r="F28">
+            <v>211.255</v>
+          </cell>
+          <cell r="I28">
+            <v>98</v>
+          </cell>
+          <cell r="J28">
+            <v>94</v>
+          </cell>
+          <cell r="K28">
+            <v>20.126283000000001</v>
+          </cell>
+          <cell r="L28">
+            <v>20.832934999999999</v>
+          </cell>
+          <cell r="M28">
+            <v>46.811818000000002</v>
+          </cell>
+          <cell r="N28">
+            <v>45.504075999999998</v>
+          </cell>
+          <cell r="O28">
+            <v>1.119315E-4</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3173,7 +5610,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -3182,13 +5619,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE64"/>
+  <dimension ref="A1:AP64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="X42" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="W14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AA48" sqref="AA48"/>
+      <selection pane="bottomRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3209,17 +5646,17 @@
     <col min="26" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:42">
       <c r="A1" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:42">
       <c r="A3" s="18" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="30" customFormat="1">
+    <row r="4" spans="1:42" s="30" customFormat="1">
       <c r="A4" s="30" t="s">
         <v>79</v>
       </c>
@@ -3227,7 +5664,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="30" customFormat="1">
+    <row r="5" spans="1:42" s="30" customFormat="1">
       <c r="A5" s="30" t="s">
         <v>57</v>
       </c>
@@ -3241,7 +5678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="30" customFormat="1">
+    <row r="6" spans="1:42" s="30" customFormat="1">
       <c r="A6" s="30" t="s">
         <v>80</v>
       </c>
@@ -3254,8 +5691,50 @@
       <c r="E6" s="30" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="30" customFormat="1">
+      <c r="AA6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE6" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AJ6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="AM6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AN6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO6" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP6" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42" s="30" customFormat="1">
       <c r="A7" s="30" t="s">
         <v>81</v>
       </c>
@@ -3272,7 +5751,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="30" customFormat="1">
+    <row r="8" spans="1:42" s="30" customFormat="1">
       <c r="A8" s="30" t="s">
         <v>63</v>
       </c>
@@ -3287,7 +5766,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="30" customFormat="1">
+    <row r="9" spans="1:42" s="30" customFormat="1">
       <c r="A9" s="30" t="s">
         <v>51</v>
       </c>
@@ -3302,7 +5781,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="30" customFormat="1">
+    <row r="10" spans="1:42" s="30" customFormat="1">
       <c r="A10" s="30" t="s">
         <v>55</v>
       </c>
@@ -3319,12 +5798,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="30" customFormat="1">
+    <row r="11" spans="1:42" s="30" customFormat="1">
       <c r="A11" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="30" customFormat="1">
+    <row r="12" spans="1:42" s="30" customFormat="1">
       <c r="A12" s="30" t="s">
         <v>83</v>
       </c>
@@ -3338,7 +5817,7 @@
         <v>125.25</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="30" customFormat="1">
+    <row r="13" spans="1:42" s="30" customFormat="1">
       <c r="A13" s="30" t="s">
         <v>84</v>
       </c>
@@ -3355,12 +5834,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="27" customFormat="1">
+    <row r="14" spans="1:42" s="27" customFormat="1">
       <c r="A14" s="32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="34" customFormat="1">
+    <row r="15" spans="1:42" s="34" customFormat="1">
       <c r="A15" s="33" t="s">
         <v>64</v>
       </c>
@@ -3373,7 +5852,7 @@
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
     </row>
-    <row r="16" spans="1:5" s="34" customFormat="1">
+    <row r="16" spans="1:42" s="34" customFormat="1">
       <c r="A16" s="33" t="s">
         <v>65</v>
       </c>
@@ -3386,7 +5865,7 @@
       <c r="D16" s="33"/>
       <c r="E16" s="33"/>
     </row>
-    <row r="17" spans="1:31" s="34" customFormat="1">
+    <row r="17" spans="1:42" s="34" customFormat="1">
       <c r="A17" s="33" t="s">
         <v>66</v>
       </c>
@@ -3399,7 +5878,7 @@
       <c r="D17" s="33"/>
       <c r="E17" s="33"/>
     </row>
-    <row r="18" spans="1:31" s="34" customFormat="1">
+    <row r="18" spans="1:42" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
         <v>76</v>
       </c>
@@ -3410,7 +5889,7 @@
       <c r="D18" s="33"/>
       <c r="E18" s="33"/>
     </row>
-    <row r="19" spans="1:31" s="34" customFormat="1">
+    <row r="19" spans="1:42" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
         <v>77</v>
       </c>
@@ -3421,7 +5900,7 @@
       <c r="D19" s="33"/>
       <c r="E19" s="33"/>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:42">
       <c r="A20" s="18" t="s">
         <v>93</v>
       </c>
@@ -3447,7 +5926,7 @@
         <v>78.036000000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:31" s="27" customFormat="1">
+    <row r="21" spans="1:42" s="27" customFormat="1">
       <c r="A21" s="26" t="s">
         <v>94</v>
       </c>
@@ -3524,27 +6003,27 @@
         <v>0</v>
       </c>
       <c r="AA21" s="53">
-        <f>ExpData!AL11</f>
+        <f>ExpData160515!AL11</f>
         <v>0</v>
       </c>
       <c r="AB21" s="53">
-        <f>ExpData!AM11</f>
+        <f>ExpData160515!AM11</f>
         <v>6.5039999999999996</v>
       </c>
       <c r="AC21" s="53">
-        <f>ExpData!AN11</f>
+        <f>ExpData160515!AN11</f>
         <v>12.406000000000001</v>
       </c>
       <c r="AD21" s="53">
-        <f>ExpData!AO11</f>
+        <f>ExpData160515!AO11</f>
         <v>17.439</v>
       </c>
       <c r="AE21" s="53">
-        <f>ExpData!AP11</f>
+        <f>ExpData160515!AP11</f>
         <v>21.963999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:31" s="27" customFormat="1">
+    <row r="22" spans="1:42" s="27" customFormat="1">
       <c r="A22" s="28" t="s">
         <v>125</v>
       </c>
@@ -3578,7 +6057,7 @@
       <c r="AD22" s="26"/>
       <c r="AE22" s="26"/>
     </row>
-    <row r="23" spans="1:31" s="27" customFormat="1">
+    <row r="23" spans="1:42" s="27" customFormat="1">
       <c r="A23" s="26" t="s">
         <v>96</v>
       </c>
@@ -3669,8 +6148,44 @@
       <c r="AE23" s="20">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" s="27" customFormat="1">
+      <c r="AG23" s="72">
+        <f>ExpData161130!U4</f>
+        <v>98</v>
+      </c>
+      <c r="AH23" s="72">
+        <f>ExpData161130!V4</f>
+        <v>98</v>
+      </c>
+      <c r="AI23" s="72">
+        <f>ExpData161130!W4</f>
+        <v>98</v>
+      </c>
+      <c r="AJ23" s="72">
+        <f>ExpData161130!X4</f>
+        <v>98</v>
+      </c>
+      <c r="AK23" s="72">
+        <f>ExpData161130!Y4</f>
+        <v>98</v>
+      </c>
+      <c r="AM23" s="72">
+        <f>ExpData161130!AA4</f>
+        <v>98</v>
+      </c>
+      <c r="AN23" s="72">
+        <f>ExpData161130!AB4</f>
+        <v>98</v>
+      </c>
+      <c r="AO23" s="72">
+        <f>ExpData161130!AC4</f>
+        <v>98</v>
+      </c>
+      <c r="AP23" s="72">
+        <f>ExpData161130!AD4</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" s="27" customFormat="1">
       <c r="A24" s="29" t="s">
         <v>98</v>
       </c>
@@ -3761,8 +6276,44 @@
       <c r="AE24" s="20">
         <v>100</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" s="27" customFormat="1">
+      <c r="AG24" s="72">
+        <f>ExpData161130!U5</f>
+        <v>94</v>
+      </c>
+      <c r="AH24" s="72">
+        <f>ExpData161130!V5</f>
+        <v>94</v>
+      </c>
+      <c r="AI24" s="72">
+        <f>ExpData161130!W5</f>
+        <v>94</v>
+      </c>
+      <c r="AJ24" s="72">
+        <f>ExpData161130!X5</f>
+        <v>94</v>
+      </c>
+      <c r="AK24" s="72">
+        <f>ExpData161130!Y5</f>
+        <v>94</v>
+      </c>
+      <c r="AM24" s="72">
+        <f>ExpData161130!AA5</f>
+        <v>94</v>
+      </c>
+      <c r="AN24" s="72">
+        <f>ExpData161130!AB5</f>
+        <v>94</v>
+      </c>
+      <c r="AO24" s="72">
+        <f>ExpData161130!AC5</f>
+        <v>94</v>
+      </c>
+      <c r="AP24" s="72">
+        <f>ExpData161130!AD5</f>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" s="27" customFormat="1">
       <c r="A25" s="28" t="s">
         <v>126</v>
       </c>
@@ -3791,7 +6342,7 @@
       <c r="X25" s="29"/>
       <c r="Y25" s="29"/>
     </row>
-    <row r="26" spans="1:31" s="27" customFormat="1">
+    <row r="26" spans="1:42" s="27" customFormat="1">
       <c r="A26" s="26" t="s">
         <v>96</v>
       </c>
@@ -3910,8 +6461,44 @@
         <f t="shared" si="7"/>
         <v>189.89</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" s="27" customFormat="1">
+      <c r="AG26" s="24">
+        <f t="shared" ref="AG26:AH26" si="8">-22.11+2.12*AG23</f>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AH26" s="24">
+        <f t="shared" si="8"/>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AI26" s="24">
+        <f>-22.11+2.12*AI23</f>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AJ26" s="24">
+        <f t="shared" ref="AJ26:AK26" si="9">-22.11+2.12*AJ23</f>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AK26" s="24">
+        <f t="shared" si="9"/>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AM26" s="24">
+        <f t="shared" ref="AM26:AN26" si="10">-22.11+2.12*AM23</f>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AN26" s="24">
+        <f t="shared" si="10"/>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AO26" s="24">
+        <f>-22.11+2.12*AO23</f>
+        <v>185.65000000000003</v>
+      </c>
+      <c r="AP26" s="24">
+        <f t="shared" ref="AP26" si="11">-22.11+2.12*AP23</f>
+        <v>185.65000000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" s="27" customFormat="1">
       <c r="A27" s="29" t="s">
         <v>98</v>
       </c>
@@ -3923,19 +6510,19 @@
         <v>196.76</v>
       </c>
       <c r="D27" s="24">
-        <f t="shared" ref="D27:G27" si="8">-7.24+2.04*D24</f>
+        <f t="shared" ref="D27:G27" si="12">-7.24+2.04*D24</f>
         <v>196.76</v>
       </c>
       <c r="E27" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>196.76</v>
       </c>
       <c r="F27" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>196.76</v>
       </c>
       <c r="G27" s="24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>196.76</v>
       </c>
       <c r="H27" s="24">
@@ -3943,19 +6530,19 @@
         <v>196.76</v>
       </c>
       <c r="I27" s="24">
-        <f t="shared" ref="I27:L27" si="9">-7.24+2.04*I24</f>
+        <f t="shared" ref="I27:L27" si="13">-7.24+2.04*I24</f>
         <v>196.76</v>
       </c>
       <c r="J27" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>196.76</v>
       </c>
       <c r="K27" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>196.76</v>
       </c>
       <c r="L27" s="24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>196.76</v>
       </c>
       <c r="M27" s="24">
@@ -3963,19 +6550,19 @@
         <v>196.76</v>
       </c>
       <c r="N27" s="24">
-        <f t="shared" ref="N27:Q27" si="10">-7.24+2.04*N24</f>
+        <f t="shared" ref="N27:Q27" si="14">-7.24+2.04*N24</f>
         <v>196.76</v>
       </c>
       <c r="O27" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>196.76</v>
       </c>
       <c r="P27" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>196.76</v>
       </c>
       <c r="Q27" s="24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>196.76</v>
       </c>
       <c r="R27" s="24">
@@ -3983,19 +6570,19 @@
         <v>94.76</v>
       </c>
       <c r="S27" s="24">
-        <f t="shared" ref="S27:V27" si="11">-7.24+2.04*S24</f>
+        <f t="shared" ref="S27:V27" si="15">-7.24+2.04*S24</f>
         <v>145.76</v>
       </c>
       <c r="T27" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>196.76</v>
       </c>
       <c r="U27" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>247.76</v>
       </c>
       <c r="V27" s="24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>298.76</v>
       </c>
       <c r="W27" s="24">
@@ -4003,19 +6590,19 @@
         <v>196.76</v>
       </c>
       <c r="X27" s="24">
-        <f t="shared" ref="X27:Y27" si="12">-7.24+2.04*X24</f>
+        <f t="shared" ref="X27:Y27" si="16">-7.24+2.04*X24</f>
         <v>196.76</v>
       </c>
       <c r="Y27" s="24">
-        <f t="shared" si="12"/>
+        <f t="shared" si="16"/>
         <v>196.76</v>
       </c>
       <c r="AA27" s="24">
-        <f t="shared" ref="AA27:AB27" si="13">-7.24+2.04*AA24</f>
+        <f t="shared" ref="AA27:AB27" si="17">-7.24+2.04*AA24</f>
         <v>196.76</v>
       </c>
       <c r="AB27" s="24">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>196.76</v>
       </c>
       <c r="AC27" s="24">
@@ -4023,15 +6610,51 @@
         <v>196.76</v>
       </c>
       <c r="AD27" s="24">
-        <f t="shared" ref="AD27:AE27" si="14">-7.24+2.04*AD24</f>
+        <f t="shared" ref="AD27:AE27" si="18">-7.24+2.04*AD24</f>
         <v>196.76</v>
       </c>
       <c r="AE27" s="24">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>196.76</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" s="27" customFormat="1">
+      <c r="AG27" s="24">
+        <f t="shared" ref="AG27:AH27" si="19">-7.24+2.04*AG24</f>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AH27" s="24">
+        <f t="shared" si="19"/>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AI27" s="24">
+        <f>-7.24+2.04*AI24</f>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AJ27" s="24">
+        <f t="shared" ref="AJ27:AK27" si="20">-7.24+2.04*AJ24</f>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AK27" s="24">
+        <f t="shared" si="20"/>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AM27" s="24">
+        <f t="shared" ref="AM27:AN27" si="21">-7.24+2.04*AM24</f>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AN27" s="24">
+        <f t="shared" si="21"/>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AO27" s="24">
+        <f>-7.24+2.04*AO24</f>
+        <v>184.51999999999998</v>
+      </c>
+      <c r="AP27" s="24">
+        <f t="shared" ref="AP27" si="22">-7.24+2.04*AP24</f>
+        <v>184.51999999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" s="27" customFormat="1">
       <c r="A28" s="28" t="s">
         <v>96</v>
       </c>
@@ -4054,7 +6677,7 @@
       <c r="X28" s="26"/>
       <c r="Y28" s="26"/>
     </row>
-    <row r="29" spans="1:31" s="27" customFormat="1">
+    <row r="29" spans="1:42" s="27" customFormat="1">
       <c r="A29" s="26" t="s">
         <v>85</v>
       </c>
@@ -4062,119 +6685,155 @@
         <v>86</v>
       </c>
       <c r="C29" s="40">
-        <f>ExpData!N15</f>
+        <f>ExpData160515!N15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="D29" s="40">
-        <f>ExpData!O15</f>
+        <f>ExpData160515!O15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="E29" s="40">
-        <f>ExpData!P15</f>
+        <f>ExpData160515!P15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="F29" s="40">
-        <f>ExpData!Q15</f>
+        <f>ExpData160515!Q15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="G29" s="40">
-        <f>ExpData!R15</f>
+        <f>ExpData160515!R15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="H29" s="40">
-        <f>ExpData!S15</f>
+        <f>ExpData160515!S15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="I29" s="40">
-        <f>ExpData!T15</f>
+        <f>ExpData160515!T15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="J29" s="40">
-        <f>ExpData!U15</f>
+        <f>ExpData160515!U15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="K29" s="40">
-        <f>ExpData!V15</f>
+        <f>ExpData160515!V15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="L29" s="40">
-        <f>ExpData!W15</f>
+        <f>ExpData160515!W15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="M29" s="40">
-        <f>ExpData!X15</f>
+        <f>ExpData160515!X15</f>
         <v>5.2783888888888889E-3</v>
       </c>
       <c r="N29" s="40">
-        <f>ExpData!Y15</f>
+        <f>ExpData160515!Y15</f>
         <v>7.9242222222222214E-3</v>
       </c>
       <c r="O29" s="40">
-        <f>ExpData!Z15</f>
+        <f>ExpData160515!Z15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="P29" s="40">
-        <f>ExpData!AA15</f>
+        <f>ExpData160515!AA15</f>
         <v>1.321588888888889E-2</v>
       </c>
       <c r="Q29" s="40">
-        <f>ExpData!AB15</f>
+        <f>ExpData160515!AB15</f>
         <v>1.5861722222222222E-2</v>
       </c>
       <c r="R29" s="40">
-        <f>ExpData!AC15</f>
+        <f>ExpData160515!AC15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="S29" s="40">
-        <f>ExpData!AD15</f>
+        <f>ExpData160515!AD15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="T29" s="40">
-        <f>ExpData!AE15</f>
+        <f>ExpData160515!AE15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="U29" s="40">
-        <f>ExpData!AF15</f>
+        <f>ExpData160515!AF15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="V29" s="40">
-        <f>ExpData!AG15</f>
+        <f>ExpData160515!AG15</f>
         <v>1.0570055555555555E-2</v>
       </c>
       <c r="W29" s="40">
-        <f>ExpData!AH15</f>
+        <f>ExpData160515!AH15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="X29" s="40">
-        <f>ExpData!AI15</f>
+        <f>ExpData160515!AI15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="Y29" s="40">
-        <f>ExpData!AJ15</f>
+        <f>ExpData160515!AJ15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="AA29" s="58">
-        <f>ExpData!AL15</f>
+        <f>ExpData160515!AL15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="AB29" s="58">
-        <f>ExpData!AM15</f>
+        <f>ExpData160515!AM15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="AC29" s="58">
-        <f>ExpData!AN15</f>
+        <f>ExpData160515!AN15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="AD29" s="58">
-        <f>ExpData!AO15</f>
+        <f>ExpData160515!AO15</f>
         <v>1.0575562188444444E-2</v>
       </c>
       <c r="AE29" s="58">
-        <f>ExpData!AP15</f>
+        <f>ExpData160515!AP15</f>
         <v>1.0575562188444444E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:31" s="27" customFormat="1">
+      <c r="AG29" s="75">
+        <f>AG26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AH29" s="75">
+        <f>AH26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AI29" s="75">
+        <f>AI26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AJ29" s="75">
+        <f>AJ26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AK29" s="75">
+        <f>AK26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AM29" s="75">
+        <f>AM26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AN29" s="75">
+        <f>AN26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AO29" s="75">
+        <f>AO26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+      <c r="AP29" s="75">
+        <f>AP26/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.2511111111111101E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" s="27" customFormat="1">
       <c r="A30" s="26" t="s">
         <v>97</v>
       </c>
@@ -4182,119 +6841,155 @@
         <v>74</v>
       </c>
       <c r="C30" s="40">
-        <f>ExpData!N16</f>
+        <f>ExpData160515!N16</f>
         <v>32.804908589380183</v>
       </c>
       <c r="D30" s="40">
-        <f>ExpData!O16</f>
+        <f>ExpData160515!O16</f>
         <v>37.545921167879214</v>
       </c>
       <c r="E30" s="40">
-        <f>ExpData!P16</f>
+        <f>ExpData160515!P16</f>
         <v>40.462794041113561</v>
       </c>
       <c r="F30" s="40">
-        <f>ExpData!Q16</f>
+        <f>ExpData160515!Q16</f>
         <v>46.813272232415727</v>
       </c>
       <c r="G30" s="40">
-        <f>ExpData!R16</f>
+        <f>ExpData160515!R16</f>
         <v>52.28803056208195</v>
       </c>
       <c r="H30" s="40">
-        <f>ExpData!S16</f>
+        <f>ExpData160515!S16</f>
         <v>46.813272232415727</v>
       </c>
       <c r="I30" s="40">
-        <f>ExpData!T16</f>
+        <f>ExpData160515!T16</f>
         <v>46.735559551037205</v>
       </c>
       <c r="J30" s="40">
-        <f>ExpData!U16</f>
+        <f>ExpData160515!U16</f>
         <v>46.756376974131932</v>
       </c>
       <c r="K30" s="40">
-        <f>ExpData!V16</f>
+        <f>ExpData160515!V16</f>
         <v>46.759715513146396</v>
       </c>
       <c r="L30" s="40">
-        <f>ExpData!W16</f>
+        <f>ExpData160515!W16</f>
         <v>46.795754117384256</v>
       </c>
       <c r="M30" s="40">
-        <f>ExpData!X16</f>
+        <f>ExpData160515!X16</f>
         <v>46.765960784537164</v>
       </c>
       <c r="N30" s="40">
-        <f>ExpData!Y16</f>
+        <f>ExpData160515!Y16</f>
         <v>46.747797849449768</v>
       </c>
       <c r="O30" s="40">
-        <f>ExpData!Z16</f>
+        <f>ExpData160515!Z16</f>
         <v>46.813272232415727</v>
       </c>
       <c r="P30" s="40">
-        <f>ExpData!AA16</f>
+        <f>ExpData160515!AA16</f>
         <v>46.780135265158755</v>
       </c>
       <c r="Q30" s="40">
-        <f>ExpData!AB16</f>
+        <f>ExpData160515!AB16</f>
         <v>46.785915070345858</v>
       </c>
       <c r="R30" s="40">
-        <f>ExpData!AC16</f>
+        <f>ExpData160515!AC16</f>
         <v>46.831304444044484</v>
       </c>
       <c r="S30" s="40">
-        <f>ExpData!AD16</f>
+        <f>ExpData160515!AD16</f>
         <v>46.835636390276221</v>
       </c>
       <c r="T30" s="40">
-        <f>ExpData!AE16</f>
+        <f>ExpData160515!AE16</f>
         <v>46.813272232415727</v>
       </c>
       <c r="U30" s="40">
-        <f>ExpData!AF16</f>
+        <f>ExpData160515!AF16</f>
         <v>46.773248419935193</v>
       </c>
       <c r="V30" s="40">
-        <f>ExpData!AG16</f>
+        <f>ExpData160515!AG16</f>
         <v>46.772998389800364</v>
       </c>
       <c r="W30" s="40">
-        <f>ExpData!AH16</f>
+        <f>ExpData160515!AH16</f>
         <v>46.813272232415727</v>
       </c>
       <c r="X30" s="40">
-        <f>ExpData!AI16</f>
+        <f>ExpData160515!AI16</f>
         <v>46.83837113278085</v>
       </c>
       <c r="Y30" s="40">
-        <f>ExpData!AJ16</f>
+        <f>ExpData160515!AJ16</f>
         <v>46.843521688179884</v>
       </c>
       <c r="AA30" s="58">
-        <f>ExpData!AL16</f>
+        <f>ExpData160515!AL16</f>
         <v>46.813272232415727</v>
       </c>
       <c r="AB30" s="58">
-        <f>ExpData!AM16</f>
+        <f>ExpData160515!AM16</f>
         <v>46.848783530878762</v>
       </c>
       <c r="AC30" s="58">
-        <f>ExpData!AN16</f>
+        <f>ExpData160515!AN16</f>
         <v>46.810284463894057</v>
       </c>
       <c r="AD30" s="58">
-        <f>ExpData!AO16</f>
+        <f>ExpData160515!AO16</f>
         <v>46.866582914572703</v>
       </c>
       <c r="AE30" s="58">
-        <f>ExpData!AP16</f>
+        <f>ExpData160515!AP16</f>
         <v>47.081704781703998</v>
       </c>
-    </row>
-    <row r="31" spans="1:31" s="27" customFormat="1">
+      <c r="AG30" s="74">
+        <f>ExpData161130!U11</f>
+        <v>46.787444999999998</v>
+      </c>
+      <c r="AH30" s="74">
+        <f>ExpData161130!V11</f>
+        <v>46.972490000000001</v>
+      </c>
+      <c r="AI30" s="74">
+        <f>ExpData161130!W11</f>
+        <v>46.850017999999999</v>
+      </c>
+      <c r="AJ30" s="74">
+        <f>ExpData161130!X11</f>
+        <v>46.907367000000001</v>
+      </c>
+      <c r="AK30" s="74">
+        <f>ExpData161130!Y11</f>
+        <v>46.941147000000001</v>
+      </c>
+      <c r="AM30" s="74">
+        <f>ExpData161130!AA11</f>
+        <v>46.908647666666667</v>
+      </c>
+      <c r="AN30" s="74">
+        <f>ExpData161130!AB11</f>
+        <v>46.87154833333333</v>
+      </c>
+      <c r="AO30" s="74">
+        <f>ExpData161130!AC11</f>
+        <v>46.776664000000004</v>
+      </c>
+      <c r="AP30" s="74">
+        <f>ExpData161130!AD11</f>
+        <v>47.191884333333327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:42" s="27" customFormat="1">
       <c r="A31" s="28" t="s">
         <v>98</v>
       </c>
@@ -4323,7 +7018,7 @@
       <c r="X31" s="41"/>
       <c r="Y31" s="41"/>
     </row>
-    <row r="32" spans="1:31" s="27" customFormat="1">
+    <row r="32" spans="1:42" s="27" customFormat="1">
       <c r="A32" s="26" t="s">
         <v>85</v>
       </c>
@@ -4331,119 +7026,155 @@
         <v>86</v>
       </c>
       <c r="C32" s="40">
-        <f>ExpData!N18</f>
+        <f>ExpData160515!N18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="D32" s="40">
-        <f>ExpData!O18</f>
+        <f>ExpData160515!O18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="E32" s="40">
-        <f>ExpData!P18</f>
+        <f>ExpData160515!P18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="F32" s="40">
-        <f>ExpData!Q18</f>
+        <f>ExpData160515!Q18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="G32" s="40">
-        <f>ExpData!R18</f>
+        <f>ExpData160515!R18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="H32" s="40">
-        <f>ExpData!S18</f>
+        <f>ExpData160515!S18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="I32" s="40">
-        <f>ExpData!T18</f>
+        <f>ExpData160515!T18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="J32" s="40">
-        <f>ExpData!U18</f>
+        <f>ExpData160515!U18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="K32" s="40">
-        <f>ExpData!V18</f>
+        <f>ExpData160515!V18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="L32" s="40">
-        <f>ExpData!W18</f>
+        <f>ExpData160515!W18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="M32" s="40">
-        <f>ExpData!X18</f>
+        <f>ExpData160515!X18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="N32" s="40">
-        <f>ExpData!Y18</f>
+        <f>ExpData160515!Y18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="O32" s="40">
-        <f>ExpData!Z18</f>
+        <f>ExpData160515!Z18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="P32" s="40">
-        <f>ExpData!AA18</f>
+        <f>ExpData160515!AA18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="Q32" s="40">
-        <f>ExpData!AB18</f>
+        <f>ExpData160515!AB18</f>
         <v>1.0024555555555571E-2</v>
       </c>
       <c r="R32" s="40">
-        <f>ExpData!AC18</f>
+        <f>ExpData160515!AC18</f>
         <v>4.9995555555555557E-3</v>
       </c>
       <c r="S32" s="40">
-        <f>ExpData!AD18</f>
+        <f>ExpData160515!AD18</f>
         <v>7.5120555555555539E-3</v>
       </c>
       <c r="T32" s="40">
-        <f>ExpData!AE18</f>
+        <f>ExpData160515!AE18</f>
         <v>1.0024555555555557E-2</v>
       </c>
       <c r="U32" s="40">
-        <f>ExpData!AF18</f>
+        <f>ExpData160515!AF18</f>
         <v>1.2537055555555556E-2</v>
       </c>
       <c r="V32" s="40">
-        <f>ExpData!AG18</f>
+        <f>ExpData160515!AG18</f>
         <v>1.5049555555555552E-2</v>
       </c>
       <c r="W32" s="40">
-        <f>ExpData!AH18</f>
+        <f>ExpData160515!AH18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="X32" s="40">
-        <f>ExpData!AI18</f>
+        <f>ExpData160515!AI18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="Y32" s="40">
-        <f>ExpData!AJ18</f>
+        <f>ExpData160515!AJ18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="AA32" s="58">
-        <f>ExpData!AL18</f>
+        <f>ExpData160515!AL18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="AB32" s="58">
-        <f>ExpData!AM18</f>
+        <f>ExpData160515!AM18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="AC32" s="58">
-        <f>ExpData!AN18</f>
+        <f>ExpData160515!AN18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="AD32" s="58">
-        <f>ExpData!AO18</f>
+        <f>ExpData160515!AO18</f>
         <v>1.0878928809055555E-2</v>
       </c>
       <c r="AE32" s="58">
-        <f>ExpData!AP18</f>
+        <f>ExpData160515!AP18</f>
         <v>1.0878928809055555E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:31" s="27" customFormat="1">
+      <c r="AG32" s="75">
+        <f>AG27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AH32" s="75">
+        <f>AH27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AI32" s="75">
+        <f>AI27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AJ32" s="75">
+        <f>AJ27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AK32" s="75">
+        <f>AK27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AM32" s="75">
+        <f>AM27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AN32" s="75">
+        <f>AN27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AO32" s="75">
+        <f>AO27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+      <c r="AP32" s="75">
+        <f>AP27/60/1000000/(MOD1W/100*MOD1H/100)</f>
+        <v>8.200888888888886E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42" s="27" customFormat="1">
       <c r="A33" s="26" t="s">
         <v>97</v>
       </c>
@@ -4451,119 +7182,155 @@
         <v>74</v>
       </c>
       <c r="C33" s="40">
-        <f>ExpData!N19</f>
+        <f>ExpData160515!N19</f>
         <v>20.020584823493895</v>
       </c>
       <c r="D33" s="40">
-        <f>ExpData!O19</f>
+        <f>ExpData160515!O19</f>
         <v>20.013996907080195</v>
       </c>
       <c r="E33" s="40">
-        <f>ExpData!P19</f>
+        <f>ExpData160515!P19</f>
         <v>20.040555205268429</v>
       </c>
       <c r="F33" s="40">
-        <f>ExpData!Q19</f>
+        <f>ExpData160515!Q19</f>
         <v>19.965192717598594</v>
       </c>
       <c r="G33" s="40">
-        <f>ExpData!R19</f>
+        <f>ExpData160515!R19</f>
         <v>20.531591054442632</v>
       </c>
       <c r="H33" s="40">
-        <f>ExpData!S19</f>
+        <f>ExpData160515!S19</f>
         <v>19.965192717598594</v>
       </c>
       <c r="I33" s="40">
-        <f>ExpData!T19</f>
+        <f>ExpData160515!T19</f>
         <v>25.020477816258023</v>
       </c>
       <c r="J33" s="40">
-        <f>ExpData!U19</f>
+        <f>ExpData160515!U19</f>
         <v>29.996660937349375</v>
       </c>
       <c r="K33" s="40">
-        <f>ExpData!V19</f>
+        <f>ExpData160515!V19</f>
         <v>34.981044802983121</v>
       </c>
       <c r="L33" s="40">
-        <f>ExpData!W19</f>
+        <f>ExpData160515!W19</f>
         <v>39.995611966534248</v>
       </c>
       <c r="M33" s="40">
-        <f>ExpData!X19</f>
+        <f>ExpData160515!X19</f>
         <v>19.95147626262694</v>
       </c>
       <c r="N33" s="40">
-        <f>ExpData!Y19</f>
+        <f>ExpData160515!Y19</f>
         <v>19.98472615642196</v>
       </c>
       <c r="O33" s="40">
-        <f>ExpData!Z19</f>
+        <f>ExpData160515!Z19</f>
         <v>19.965192717598594</v>
       </c>
       <c r="P33" s="40">
-        <f>ExpData!AA19</f>
+        <f>ExpData160515!AA19</f>
         <v>19.98426554012838</v>
       </c>
       <c r="Q33" s="40">
-        <f>ExpData!AB19</f>
+        <f>ExpData160515!AB19</f>
         <v>20.033552339221512</v>
       </c>
       <c r="R33" s="40">
-        <f>ExpData!AC19</f>
+        <f>ExpData160515!AC19</f>
         <v>19.99611427063822</v>
       </c>
       <c r="S33" s="40">
-        <f>ExpData!AD19</f>
+        <f>ExpData160515!AD19</f>
         <v>19.985256383306695</v>
       </c>
       <c r="T33" s="40">
-        <f>ExpData!AE19</f>
+        <f>ExpData160515!AE19</f>
         <v>19.965192717598594</v>
       </c>
       <c r="U33" s="40">
-        <f>ExpData!AF19</f>
+        <f>ExpData160515!AF19</f>
         <v>19.978884732789933</v>
       </c>
       <c r="V33" s="40">
-        <f>ExpData!AG19</f>
+        <f>ExpData160515!AG19</f>
         <v>19.940144584158414</v>
       </c>
       <c r="W33" s="40">
-        <f>ExpData!AH19</f>
+        <f>ExpData160515!AH19</f>
         <v>19.965192717598594</v>
       </c>
       <c r="X33" s="40">
-        <f>ExpData!AI19</f>
+        <f>ExpData160515!AI19</f>
         <v>19.962840387781814</v>
       </c>
       <c r="Y33" s="40">
-        <f>ExpData!AJ19</f>
+        <f>ExpData160515!AJ19</f>
         <v>19.94308391529044</v>
       </c>
       <c r="AA33" s="58">
-        <f>ExpData!AL19</f>
+        <f>ExpData160515!AL19</f>
         <v>19.965192717598594</v>
       </c>
       <c r="AB33" s="58">
-        <f>ExpData!AM19</f>
+        <f>ExpData160515!AM19</f>
         <v>19.989925140361731</v>
       </c>
       <c r="AC33" s="58">
-        <f>ExpData!AN19</f>
+        <f>ExpData160515!AN19</f>
         <v>19.900375117224076</v>
       </c>
       <c r="AD33" s="58">
-        <f>ExpData!AO19</f>
+        <f>ExpData160515!AO19</f>
         <v>19.998618090452187</v>
       </c>
       <c r="AE33" s="58">
-        <f>ExpData!AP19</f>
+        <f>ExpData160515!AP19</f>
         <v>19.971794871794781</v>
       </c>
-    </row>
-    <row r="34" spans="1:31">
+      <c r="AG33" s="74">
+        <f>ExpData161130!U14</f>
+        <v>19.99835666666667</v>
+      </c>
+      <c r="AH33" s="74">
+        <f>ExpData161130!V14</f>
+        <v>20.020875999999998</v>
+      </c>
+      <c r="AI33" s="74">
+        <f>ExpData161130!W14</f>
+        <v>19.863140666666666</v>
+      </c>
+      <c r="AJ33" s="74">
+        <f>ExpData161130!X14</f>
+        <v>20.115232666666667</v>
+      </c>
+      <c r="AK33" s="74">
+        <f>ExpData161130!Y14</f>
+        <v>19.889080666666665</v>
+      </c>
+      <c r="AM33" s="74">
+        <f>ExpData161130!AA14</f>
+        <v>19.948305666666666</v>
+      </c>
+      <c r="AN33" s="74">
+        <f>ExpData161130!AB14</f>
+        <v>19.895390333333335</v>
+      </c>
+      <c r="AO33" s="74">
+        <f>ExpData161130!AC14</f>
+        <v>19.898199000000002</v>
+      </c>
+      <c r="AP33" s="74">
+        <f>ExpData161130!AD14</f>
+        <v>20.074282999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
       <c r="A34" s="18" t="s">
         <v>70</v>
       </c>
@@ -4591,7 +7358,7 @@
       <c r="X34" s="19"/>
       <c r="Y34" s="19"/>
     </row>
-    <row r="35" spans="1:31" s="25" customFormat="1">
+    <row r="35" spans="1:42" s="25" customFormat="1">
       <c r="A35" s="25" t="s">
         <v>73</v>
       </c>
@@ -4599,119 +7366,155 @@
         <v>74</v>
       </c>
       <c r="C35" s="40">
-        <f>ExpData!N21</f>
+        <f>ExpData160515!N21</f>
         <v>32.209159619805561</v>
       </c>
       <c r="D35" s="40">
-        <f>ExpData!O21</f>
+        <f>ExpData160515!O21</f>
         <v>36.641882535934052</v>
       </c>
       <c r="E35" s="40">
-        <f>ExpData!P21</f>
+        <f>ExpData160515!P21</f>
         <v>39.206231593240013</v>
       </c>
       <c r="F35" s="40">
-        <f>ExpData!Q21</f>
+        <f>ExpData160515!Q21</f>
         <v>45.115007004655496</v>
       </c>
       <c r="G35" s="40">
-        <f>ExpData!R21</f>
+        <f>ExpData160515!R21</f>
         <v>50.488628590359532</v>
       </c>
       <c r="H35" s="40">
-        <f>ExpData!S21</f>
+        <f>ExpData160515!S21</f>
         <v>45.115007004655496</v>
       </c>
       <c r="I35" s="40">
-        <f>ExpData!T21</f>
+        <f>ExpData160515!T21</f>
         <v>45.152704364084947</v>
       </c>
       <c r="J35" s="40">
-        <f>ExpData!U21</f>
+        <f>ExpData160515!U21</f>
         <v>45.332937279628425</v>
       </c>
       <c r="K35" s="40">
-        <f>ExpData!V21</f>
+        <f>ExpData160515!V21</f>
         <v>45.65301197436299</v>
       </c>
       <c r="L35" s="40">
-        <f>ExpData!W21</f>
+        <f>ExpData160515!W21</f>
         <v>45.862899949634645</v>
       </c>
       <c r="M35" s="40">
-        <f>ExpData!X21</f>
+        <f>ExpData160515!X21</f>
         <v>46.414726050719302</v>
       </c>
       <c r="N35" s="40">
-        <f>ExpData!Y21</f>
+        <f>ExpData160515!Y21</f>
         <v>45.253056164715588</v>
       </c>
       <c r="O35" s="40">
-        <f>ExpData!Z21</f>
+        <f>ExpData160515!Z21</f>
         <v>45.115007004655496</v>
       </c>
       <c r="P35" s="40">
-        <f>ExpData!AA21</f>
+        <f>ExpData160515!AA21</f>
         <v>45.554121695468943</v>
       </c>
       <c r="Q35" s="40">
-        <f>ExpData!AB21</f>
+        <f>ExpData160515!AB21</f>
         <v>45.667769594471679</v>
       </c>
       <c r="R35" s="40">
-        <f>ExpData!AC21</f>
+        <f>ExpData160515!AC21</f>
         <v>45.410532556242877</v>
       </c>
       <c r="S35" s="40">
-        <f>ExpData!AD21</f>
+        <f>ExpData160515!AD21</f>
         <v>45.366644909743457</v>
       </c>
       <c r="T35" s="40">
-        <f>ExpData!AE21</f>
+        <f>ExpData160515!AE21</f>
         <v>45.115007004655496</v>
       </c>
       <c r="U35" s="40">
-        <f>ExpData!AF21</f>
+        <f>ExpData160515!AF21</f>
         <v>45.184878246406505</v>
       </c>
       <c r="V35" s="40">
-        <f>ExpData!AG21</f>
+        <f>ExpData160515!AG21</f>
         <v>45.148270505308638</v>
       </c>
       <c r="W35" s="40">
-        <f>ExpData!AH21</f>
+        <f>ExpData160515!AH21</f>
         <v>45.115007004655496</v>
       </c>
       <c r="X35" s="40">
-        <f>ExpData!AI21</f>
+        <f>ExpData160515!AI21</f>
         <v>45.243818979301523</v>
       </c>
       <c r="Y35" s="40">
-        <f>ExpData!AJ21</f>
+        <f>ExpData160515!AJ21</f>
         <v>44.928683240302114</v>
       </c>
       <c r="AA35" s="58">
-        <f>ExpData!AL21</f>
+        <f>ExpData160515!AL21</f>
         <v>45.115007004655496</v>
       </c>
       <c r="AB35" s="58">
-        <f>ExpData!AM21</f>
+        <f>ExpData160515!AM21</f>
         <v>45.433250155957296</v>
       </c>
       <c r="AC35" s="58">
-        <f>ExpData!AN21</f>
+        <f>ExpData160515!AN21</f>
         <v>46.127227258519227</v>
       </c>
       <c r="AD35" s="58">
-        <f>ExpData!AO21</f>
+        <f>ExpData160515!AO21</f>
         <v>45.261652010050049</v>
       </c>
       <c r="AE35" s="58">
-        <f>ExpData!AP21</f>
+        <f>ExpData160515!AP21</f>
         <v>45.950311850311486</v>
       </c>
-    </row>
-    <row r="36" spans="1:31" s="25" customFormat="1">
+      <c r="AG35" s="74">
+        <f>ExpData161130!U16</f>
+        <v>45.745317333333332</v>
+      </c>
+      <c r="AH35" s="74">
+        <f>ExpData161130!V16</f>
+        <v>45.949279999999995</v>
+      </c>
+      <c r="AI35" s="74">
+        <f>ExpData161130!W16</f>
+        <v>45.720077333333336</v>
+      </c>
+      <c r="AJ35" s="74">
+        <f>ExpData161130!X16</f>
+        <v>45.758546666666668</v>
+      </c>
+      <c r="AK35" s="74">
+        <f>ExpData161130!Y16</f>
+        <v>45.631227333333328</v>
+      </c>
+      <c r="AM35" s="74">
+        <f>ExpData161130!AA16</f>
+        <v>21.060659666666666</v>
+      </c>
+      <c r="AN35" s="74">
+        <f>ExpData161130!AB16</f>
+        <v>20.886816333333332</v>
+      </c>
+      <c r="AO35" s="74">
+        <f>ExpData161130!AC16</f>
+        <v>20.737005333333332</v>
+      </c>
+      <c r="AP35" s="74">
+        <f>ExpData161130!AD16</f>
+        <v>20.766840666666663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42" s="25" customFormat="1">
       <c r="A36" s="25" t="s">
         <v>75</v>
       </c>
@@ -4719,119 +7522,155 @@
         <v>74</v>
       </c>
       <c r="C36" s="40">
-        <f>ExpData!N22</f>
+        <f>ExpData160515!N22</f>
         <v>21.1468268936618</v>
       </c>
       <c r="D36" s="40">
-        <f>ExpData!O22</f>
+        <f>ExpData160515!O22</f>
         <v>21.066646083396979</v>
       </c>
       <c r="E36" s="40">
-        <f>ExpData!P22</f>
+        <f>ExpData160515!P22</f>
         <v>21.202254882336835</v>
       </c>
       <c r="F36" s="40">
-        <f>ExpData!Q22</f>
+        <f>ExpData160515!Q22</f>
         <v>21.428861307302665</v>
       </c>
       <c r="G36" s="40">
-        <f>ExpData!R22</f>
+        <f>ExpData160515!R22</f>
         <v>21.993250061846652</v>
       </c>
       <c r="H36" s="40">
-        <f>ExpData!S22</f>
+        <f>ExpData160515!S22</f>
         <v>21.428861307302665</v>
       </c>
       <c r="I36" s="40">
-        <f>ExpData!T22</f>
+        <f>ExpData160515!T22</f>
         <v>26.071689439399325</v>
       </c>
       <c r="J36" s="40">
-        <f>ExpData!U22</f>
+        <f>ExpData160515!U22</f>
         <v>30.76148736331346</v>
       </c>
       <c r="K36" s="40">
-        <f>ExpData!V22</f>
+        <f>ExpData160515!V22</f>
         <v>35.502290509265826</v>
       </c>
       <c r="L36" s="40">
-        <f>ExpData!W22</f>
+        <f>ExpData160515!W22</f>
         <v>40.423454833974333</v>
       </c>
       <c r="M36" s="40">
-        <f>ExpData!X22</f>
+        <f>ExpData160515!X22</f>
         <v>21.494944118539394</v>
       </c>
       <c r="N36" s="40">
-        <f>ExpData!Y22</f>
+        <f>ExpData160515!Y22</f>
         <v>21.517883020301912</v>
       </c>
       <c r="O36" s="40">
-        <f>ExpData!Z22</f>
+        <f>ExpData160515!Z22</f>
         <v>21.428861307302665</v>
       </c>
       <c r="P36" s="40">
-        <f>ExpData!AA22</f>
+        <f>ExpData160515!AA22</f>
         <v>21.595394953178555</v>
       </c>
       <c r="Q36" s="40">
-        <f>ExpData!AB22</f>
+        <f>ExpData160515!AB22</f>
         <v>21.805176462942171</v>
       </c>
       <c r="R36" s="40">
-        <f>ExpData!AC22</f>
+        <f>ExpData160515!AC22</f>
         <v>21.733402276973759</v>
       </c>
       <c r="S36" s="40">
-        <f>ExpData!AD22</f>
+        <f>ExpData160515!AD22</f>
         <v>21.854517375313929</v>
       </c>
       <c r="T36" s="40">
-        <f>ExpData!AE22</f>
+        <f>ExpData160515!AE22</f>
         <v>21.428861307302665</v>
       </c>
       <c r="U36" s="40">
-        <f>ExpData!AF22</f>
+        <f>ExpData160515!AF22</f>
         <v>21.479081058045157</v>
       </c>
       <c r="V36" s="40">
-        <f>ExpData!AG22</f>
+        <f>ExpData160515!AG22</f>
         <v>21.310467600503262</v>
       </c>
       <c r="W36" s="40">
-        <f>ExpData!AH22</f>
+        <f>ExpData160515!AH22</f>
         <v>21.428861307302665</v>
       </c>
       <c r="X36" s="40">
-        <f>ExpData!AI22</f>
+        <f>ExpData160515!AI22</f>
         <v>21.478318390552261</v>
       </c>
       <c r="Y36" s="40">
-        <f>ExpData!AJ22</f>
+        <f>ExpData160515!AJ22</f>
         <v>21.306892948428231</v>
       </c>
       <c r="AA36" s="58">
-        <f>ExpData!AL22</f>
+        <f>ExpData160515!AL22</f>
         <v>21.428861307302665</v>
       </c>
       <c r="AB36" s="58">
-        <f>ExpData!AM22</f>
+        <f>ExpData160515!AM22</f>
         <v>21.583000623829477</v>
       </c>
       <c r="AC36" s="58">
-        <f>ExpData!AN22</f>
+        <f>ExpData160515!AN22</f>
         <v>21.569084088778226</v>
       </c>
       <c r="AD36" s="58">
-        <f>ExpData!AO22</f>
+        <f>ExpData160515!AO22</f>
         <v>21.251664572864392</v>
       </c>
       <c r="AE36" s="58">
-        <f>ExpData!AP22</f>
+        <f>ExpData160515!AP22</f>
         <v>21.224081774082016</v>
       </c>
-    </row>
-    <row r="37" spans="1:31" s="25" customFormat="1">
+      <c r="AG36" s="74">
+        <f>ExpData161130!U17</f>
+        <v>20.394694666666666</v>
+      </c>
+      <c r="AH36" s="74">
+        <f>ExpData161130!V17</f>
+        <v>20.706840999999997</v>
+      </c>
+      <c r="AI36" s="74">
+        <f>ExpData161130!W17</f>
+        <v>20.617133666666664</v>
+      </c>
+      <c r="AJ36" s="74">
+        <f>ExpData161130!X17</f>
+        <v>20.743951333333332</v>
+      </c>
+      <c r="AK36" s="74">
+        <f>ExpData161130!Y17</f>
+        <v>20.753770333333332</v>
+      </c>
+      <c r="AM36" s="74">
+        <f>ExpData161130!AA17</f>
+        <v>45.504165</v>
+      </c>
+      <c r="AN36" s="74">
+        <f>ExpData161130!AB17</f>
+        <v>45.49707033333334</v>
+      </c>
+      <c r="AO36" s="74">
+        <f>ExpData161130!AC17</f>
+        <v>45.505756999999996</v>
+      </c>
+      <c r="AP36" s="74">
+        <f>ExpData161130!AD17</f>
+        <v>45.912472999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:42" s="25" customFormat="1">
       <c r="A37" s="25" t="s">
         <v>71</v>
       </c>
@@ -4839,216 +7678,252 @@
         <v>72</v>
       </c>
       <c r="C37" s="40">
-        <f>ExpData!N23</f>
+        <f>ExpData160515!N23</f>
         <v>3.8848588799999995</v>
       </c>
       <c r="D37" s="40">
-        <f>ExpData!O23</f>
+        <f>ExpData160515!O23</f>
         <v>5.667941375999999</v>
       </c>
       <c r="E37" s="40">
-        <f>ExpData!P23</f>
+        <f>ExpData160515!P23</f>
         <v>7.0075795200000002</v>
       </c>
       <c r="F37" s="40">
-        <f>ExpData!Q23</f>
+        <f>ExpData160515!Q23</f>
         <v>10.728884735999999</v>
       </c>
       <c r="G37" s="40">
-        <f>ExpData!R23</f>
+        <f>ExpData160515!R23</f>
         <v>14.106180095999997</v>
       </c>
       <c r="H37" s="40">
-        <f>ExpData!S23</f>
+        <f>ExpData160515!S23</f>
         <v>10.728884735999999</v>
       </c>
       <c r="I37" s="40">
-        <f>ExpData!T23</f>
+        <f>ExpData160515!T23</f>
         <v>9.2522250239999995</v>
       </c>
       <c r="J37" s="40">
-        <f>ExpData!U23</f>
+        <f>ExpData160515!U23</f>
         <v>7.6446888960000008</v>
       </c>
       <c r="K37" s="40">
-        <f>ExpData!V23</f>
+        <f>ExpData160515!V23</f>
         <v>5.6193918719999987</v>
       </c>
       <c r="L37" s="40">
-        <f>ExpData!W23</f>
+        <f>ExpData160515!W23</f>
         <v>3.5767384319999995</v>
       </c>
       <c r="M37" s="40">
-        <f>ExpData!X23</f>
+        <f>ExpData160515!X23</f>
         <v>10.576399104</v>
       </c>
       <c r="N37" s="40">
-        <f>ExpData!Y23</f>
+        <f>ExpData160515!Y23</f>
         <v>10.284390143999998</v>
       </c>
       <c r="O37" s="40">
-        <f>ExpData!Z23</f>
+        <f>ExpData160515!Z23</f>
         <v>10.728884735999999</v>
       </c>
       <c r="P37" s="40">
-        <f>ExpData!AA23</f>
+        <f>ExpData160515!AA23</f>
         <v>10.960891391999999</v>
       </c>
       <c r="Q37" s="40">
-        <f>ExpData!AB23</f>
+        <f>ExpData160515!AB23</f>
         <v>11.167119743999999</v>
       </c>
       <c r="R37" s="40">
-        <f>ExpData!AC23</f>
+        <f>ExpData160515!AC23</f>
         <v>9.8861740800000018</v>
       </c>
       <c r="S37" s="40">
-        <f>ExpData!AD23</f>
+        <f>ExpData160515!AD23</f>
         <v>10.167006336</v>
       </c>
       <c r="T37" s="40">
-        <f>ExpData!AE23</f>
+        <f>ExpData160515!AE23</f>
         <v>10.728884735999999</v>
       </c>
       <c r="U37" s="40">
-        <f>ExpData!AF23</f>
+        <f>ExpData160515!AF23</f>
         <v>11.559156864</v>
       </c>
       <c r="V37" s="40">
-        <f>ExpData!AG23</f>
+        <f>ExpData160515!AG23</f>
         <v>11.892979584000001</v>
       </c>
       <c r="W37" s="40">
-        <f>ExpData!AH23</f>
+        <f>ExpData160515!AH23</f>
         <v>10.728884735999999</v>
       </c>
       <c r="X37" s="40">
-        <f>ExpData!AI23</f>
+        <f>ExpData160515!AI23</f>
         <v>3.5032684799999991</v>
       </c>
       <c r="Y37" s="40">
-        <f>ExpData!AJ23</f>
+        <f>ExpData160515!AJ23</f>
         <v>4.8133098240000001</v>
       </c>
       <c r="AA37" s="58">
-        <f>ExpData!AL23</f>
+        <f>ExpData160515!AL23</f>
         <v>10.728884735999999</v>
       </c>
       <c r="AB37" s="58">
-        <f>ExpData!AM23</f>
+        <f>ExpData160515!AM23</f>
         <v>6.7713711627906985</v>
       </c>
       <c r="AC37" s="58">
-        <f>ExpData!AN23</f>
+        <f>ExpData160515!AN23</f>
         <v>5.5270333439999995</v>
       </c>
       <c r="AD37" s="58">
-        <f>ExpData!AO23</f>
+        <f>ExpData160515!AO23</f>
         <v>3.0934241280000001</v>
       </c>
       <c r="AE37" s="58">
-        <f>ExpData!AP23</f>
+        <f>ExpData160515!AP23</f>
         <v>0.32185294698240002</v>
       </c>
-    </row>
-    <row r="38" spans="1:31">
+      <c r="AG37" s="73">
+        <f>ExpData161130!U18</f>
+        <v>5.0019625728000001</v>
+      </c>
+      <c r="AH37" s="73">
+        <f>ExpData161130!V18</f>
+        <v>4.4134104959999991</v>
+      </c>
+      <c r="AI37" s="73">
+        <f>ExpData161130!W18</f>
+        <v>3.462614592</v>
+      </c>
+      <c r="AJ37" s="73">
+        <f>ExpData161130!X18</f>
+        <v>3.0054249984000001</v>
+      </c>
+      <c r="AK37" s="73">
+        <f>ExpData161130!Y18</f>
+        <v>5.1545233151999996</v>
+      </c>
+      <c r="AM37" s="73">
+        <f>ExpData161130!AA18</f>
+        <v>4.2218308607999999</v>
+      </c>
+      <c r="AN37" s="73">
+        <f>ExpData161130!AB18</f>
+        <v>2.8030695167999999</v>
+      </c>
+      <c r="AO37" s="73">
+        <f>ExpData161130!AC18</f>
+        <v>1.5553173503999997</v>
+      </c>
+      <c r="AP37" s="73">
+        <f>ExpData161130!AD18</f>
+        <v>0.24622156800000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:42">
       <c r="A38" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C38" s="53" t="str">
-        <f>ExpData!N24</f>
+        <f>ExpData160515!N24</f>
         <v/>
       </c>
       <c r="D38" s="53" t="str">
-        <f>ExpData!O24</f>
+        <f>ExpData160515!O24</f>
         <v/>
       </c>
       <c r="E38" s="53" t="str">
-        <f>ExpData!P24</f>
+        <f>ExpData160515!P24</f>
         <v/>
       </c>
       <c r="F38" s="53" t="str">
-        <f>ExpData!Q24</f>
+        <f>ExpData160515!Q24</f>
         <v/>
       </c>
       <c r="G38" s="53" t="str">
-        <f>ExpData!R24</f>
+        <f>ExpData160515!R24</f>
         <v/>
       </c>
       <c r="H38" s="53" t="str">
-        <f>ExpData!S24</f>
+        <f>ExpData160515!S24</f>
         <v>duplicate</v>
       </c>
       <c r="I38" s="53" t="str">
-        <f>ExpData!T24</f>
+        <f>ExpData160515!T24</f>
         <v/>
       </c>
       <c r="J38" s="53" t="str">
-        <f>ExpData!U24</f>
+        <f>ExpData160515!U24</f>
         <v/>
       </c>
       <c r="K38" s="53" t="str">
-        <f>ExpData!V24</f>
+        <f>ExpData160515!V24</f>
         <v/>
       </c>
       <c r="L38" s="53" t="str">
-        <f>ExpData!W24</f>
+        <f>ExpData160515!W24</f>
         <v/>
       </c>
       <c r="M38" s="53" t="str">
-        <f>ExpData!X24</f>
+        <f>ExpData160515!X24</f>
         <v/>
       </c>
       <c r="N38" s="53" t="str">
-        <f>ExpData!Y24</f>
+        <f>ExpData160515!Y24</f>
         <v/>
       </c>
       <c r="O38" s="53" t="str">
-        <f>ExpData!Z24</f>
+        <f>ExpData160515!Z24</f>
         <v>duplicate</v>
       </c>
       <c r="P38" s="53" t="str">
-        <f>ExpData!AA24</f>
+        <f>ExpData160515!AA24</f>
         <v/>
       </c>
       <c r="Q38" s="53" t="str">
-        <f>ExpData!AB24</f>
+        <f>ExpData160515!AB24</f>
         <v/>
       </c>
       <c r="R38" s="53" t="str">
-        <f>ExpData!AC24</f>
+        <f>ExpData160515!AC24</f>
         <v/>
       </c>
       <c r="S38" s="53" t="str">
-        <f>ExpData!AD24</f>
+        <f>ExpData160515!AD24</f>
         <v/>
       </c>
       <c r="T38" s="53" t="str">
-        <f>ExpData!AE24</f>
+        <f>ExpData160515!AE24</f>
         <v>duplicate</v>
       </c>
       <c r="U38" s="53" t="str">
-        <f>ExpData!AF24</f>
+        <f>ExpData160515!AF24</f>
         <v/>
       </c>
       <c r="V38" s="53" t="str">
-        <f>ExpData!AG24</f>
+        <f>ExpData160515!AG24</f>
         <v/>
       </c>
       <c r="W38" s="53" t="str">
-        <f>ExpData!AH24</f>
+        <f>ExpData160515!AH24</f>
         <v>duplicate</v>
       </c>
       <c r="X38" s="53" t="str">
-        <f>ExpData!AI24</f>
+        <f>ExpData160515!AI24</f>
         <v/>
       </c>
       <c r="Y38" s="53" t="str">
-        <f>ExpData!AJ24</f>
+        <f>ExpData160515!AJ24</f>
         <v/>
       </c>
       <c r="AA38" s="53" t="str">
-        <f>ExpData!AL24</f>
+        <f>ExpData160515!AL24</f>
         <v>duplicate</v>
       </c>
       <c r="AB38" s="53"/>
@@ -5056,12 +7931,12 @@
       <c r="AD38" s="53"/>
       <c r="AE38" s="53"/>
     </row>
-    <row r="39" spans="1:31">
+    <row r="39" spans="1:42">
       <c r="A39" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:31">
+    <row r="40" spans="1:42">
       <c r="A40" s="18" t="s">
         <v>100</v>
       </c>
@@ -5084,7 +7959,7 @@
       <c r="X40" s="42"/>
       <c r="Y40" s="42"/>
     </row>
-    <row r="41" spans="1:31" s="56" customFormat="1">
+    <row r="41" spans="1:42" s="56" customFormat="1">
       <c r="A41" s="56" t="s">
         <v>87</v>
       </c>
@@ -5092,119 +7967,119 @@
         <v>86</v>
       </c>
       <c r="C41" s="57">
-        <f t="shared" ref="C41:Y41" si="15">C26/1000000/60/(MOD1W*MOD1H/10000)</f>
+        <f t="shared" ref="C41:Y41" si="23">C26/1000000/60/(MOD1W*MOD1H/10000)</f>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="D41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="E41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="F41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="G41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="H41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="I41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="J41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="K41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="L41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="M41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>3.7284444444444444E-3</v>
       </c>
       <c r="N41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6.084E-3</v>
       </c>
       <c r="O41" s="57">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="P41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.0795111111111109E-2</v>
       </c>
       <c r="Q41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>1.3150666666666666E-2</v>
       </c>
       <c r="R41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="S41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="T41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="U41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="V41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="W41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="X41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="Y41" s="59">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="AA41" s="57">
-        <f t="shared" ref="AA41:AE41" si="16">AA26/1000000/60/(MOD1W*MOD1H/10000)</f>
+        <f t="shared" ref="AA41:AE41" si="24">AA26/1000000/60/(MOD1W*MOD1H/10000)</f>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="AB41" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="AC41" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="AD41" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.4395555555555543E-3</v>
       </c>
       <c r="AE41" s="57">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>8.4395555555555543E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:31" s="56" customFormat="1">
+    <row r="42" spans="1:42" s="56" customFormat="1">
       <c r="A42" s="56" t="s">
         <v>102</v>
       </c>
@@ -5212,119 +8087,119 @@
         <v>90</v>
       </c>
       <c r="C42" s="57">
-        <f t="shared" ref="C42:Y42" si="17">C30+273.15</f>
+        <f t="shared" ref="C42:Y42" si="25">C30+273.15</f>
         <v>305.95490858938018</v>
       </c>
       <c r="D42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>310.69592116787919</v>
       </c>
       <c r="E42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>313.61279404111355</v>
       </c>
       <c r="F42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.9632722324157</v>
       </c>
       <c r="G42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>325.43803056208191</v>
       </c>
       <c r="H42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.9632722324157</v>
       </c>
       <c r="I42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.8855595510372</v>
       </c>
       <c r="J42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.90637697413189</v>
       </c>
       <c r="K42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.90971551314635</v>
       </c>
       <c r="L42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.94575411738424</v>
       </c>
       <c r="M42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.91596078453716</v>
       </c>
       <c r="N42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.89779784944972</v>
       </c>
       <c r="O42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.9632722324157</v>
       </c>
       <c r="P42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.93013526515875</v>
       </c>
       <c r="Q42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.93591507034586</v>
       </c>
       <c r="R42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.98130444404444</v>
       </c>
       <c r="S42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.98563639027623</v>
       </c>
       <c r="T42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.9632722324157</v>
       </c>
       <c r="U42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.92324841993519</v>
       </c>
       <c r="V42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.92299838980034</v>
       </c>
       <c r="W42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.9632722324157</v>
       </c>
       <c r="X42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.9883711327808</v>
       </c>
       <c r="Y42" s="57">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>319.99352168817984</v>
       </c>
       <c r="AA42" s="57">
-        <f t="shared" ref="AA42" si="18">AA30+273.15</f>
+        <f t="shared" ref="AA42" si="26">AA30+273.15</f>
         <v>319.9632722324157</v>
       </c>
       <c r="AB42" s="57">
-        <f t="shared" ref="AB42:AE42" si="19">AB30+273.15</f>
+        <f t="shared" ref="AB42:AE42" si="27">AB30+273.15</f>
         <v>319.99878353087877</v>
       </c>
       <c r="AC42" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>319.96028446389403</v>
       </c>
       <c r="AD42" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>320.01658291457267</v>
       </c>
       <c r="AE42" s="57">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>320.23170478170397</v>
       </c>
     </row>
-    <row r="43" spans="1:31" s="56" customFormat="1">
+    <row r="43" spans="1:42" s="56" customFormat="1">
       <c r="A43" s="56" t="s">
         <v>101</v>
       </c>
@@ -5332,124 +8207,124 @@
         <v>90</v>
       </c>
       <c r="C43" s="57">
-        <f t="shared" ref="C43:Y43" si="20">C35+273.15</f>
+        <f t="shared" ref="C43:Y43" si="28">C35+273.15</f>
         <v>305.35915961980555</v>
       </c>
       <c r="D43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>309.79188253593401</v>
       </c>
       <c r="E43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>312.35623159324001</v>
       </c>
       <c r="F43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.26500700465544</v>
       </c>
       <c r="G43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>323.63862859035953</v>
       </c>
       <c r="H43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.26500700465544</v>
       </c>
       <c r="I43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.30270436408495</v>
       </c>
       <c r="J43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.4829372796284</v>
       </c>
       <c r="K43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.80301197436296</v>
       </c>
       <c r="L43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>319.01289994963463</v>
       </c>
       <c r="M43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>319.56472605071929</v>
       </c>
       <c r="N43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.40305616471557</v>
       </c>
       <c r="O43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.26500700465544</v>
       </c>
       <c r="P43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.70412169546893</v>
       </c>
       <c r="Q43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.81776959447166</v>
       </c>
       <c r="R43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.56053255624283</v>
       </c>
       <c r="S43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.51664490974343</v>
       </c>
       <c r="T43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.26500700465544</v>
       </c>
       <c r="U43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.3348782464065</v>
       </c>
       <c r="V43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.29827050530861</v>
       </c>
       <c r="W43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.26500700465544</v>
       </c>
       <c r="X43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.3938189793015</v>
       </c>
       <c r="Y43" s="57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>318.0786832403021</v>
       </c>
       <c r="AA43" s="57">
-        <f t="shared" ref="AA43" si="21">AA35+273.15</f>
+        <f t="shared" ref="AA43" si="29">AA35+273.15</f>
         <v>318.26500700465544</v>
       </c>
       <c r="AB43" s="57">
-        <f t="shared" ref="AB43:AE43" si="22">AB35+273.15</f>
+        <f t="shared" ref="AB43:AE43" si="30">AB35+273.15</f>
         <v>318.58325015595727</v>
       </c>
       <c r="AC43" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>319.27722725851919</v>
       </c>
       <c r="AD43" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>318.41165201005003</v>
       </c>
       <c r="AE43" s="57">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>319.10031185031147</v>
       </c>
     </row>
-    <row r="44" spans="1:31" s="56" customFormat="1">
+    <row r="44" spans="1:42" s="56" customFormat="1">
       <c r="A44" s="32" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:31" s="56" customFormat="1">
+    <row r="45" spans="1:42" s="56" customFormat="1">
       <c r="A45" s="56" t="s">
         <v>87</v>
       </c>
@@ -5457,119 +8332,119 @@
         <v>86</v>
       </c>
       <c r="C45" s="57">
-        <f t="shared" ref="C45:Y45" si="23">C27/1000000/60/(MOD1H*MOD1W/10000)</f>
+        <f t="shared" ref="C45:Y45" si="31">C27/1000000/60/(MOD1H*MOD1W/10000)</f>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="D45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="E45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="F45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="G45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="H45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="I45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="J45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="K45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="L45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="M45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="N45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="O45" s="57">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="P45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="Q45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="R45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>4.2115555555555561E-3</v>
       </c>
       <c r="S45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>6.478222222222222E-3</v>
       </c>
       <c r="T45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="U45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1.1011555555555554E-2</v>
       </c>
       <c r="V45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>1.3278222222222219E-2</v>
       </c>
       <c r="W45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="X45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="Y45" s="59">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="AA45" s="57">
-        <f t="shared" ref="AA45:AE45" si="24">AA27/1000000/60/(MOD1H*MOD1W/10000)</f>
+        <f t="shared" ref="AA45:AE45" si="32">AA27/1000000/60/(MOD1H*MOD1W/10000)</f>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="AB45" s="57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="AC45" s="57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="AD45" s="57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8.7448888888888889E-3</v>
       </c>
       <c r="AE45" s="57">
-        <f t="shared" si="24"/>
+        <f t="shared" si="32"/>
         <v>8.7448888888888889E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:31" s="56" customFormat="1">
+    <row r="46" spans="1:42" s="56" customFormat="1">
       <c r="A46" s="56" t="s">
         <v>102</v>
       </c>
@@ -5577,119 +8452,119 @@
         <v>90</v>
       </c>
       <c r="C46" s="57">
-        <f t="shared" ref="C46:Y46" si="25">C33+273.15</f>
+        <f t="shared" ref="C46:Y46" si="33">C33+273.15</f>
         <v>293.17058482349387</v>
       </c>
       <c r="D46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.16399690708016</v>
       </c>
       <c r="E46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.19055520526842</v>
       </c>
       <c r="F46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.11519271759857</v>
       </c>
       <c r="G46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.68159105444261</v>
       </c>
       <c r="H46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.11519271759857</v>
       </c>
       <c r="I46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>298.17047781625797</v>
       </c>
       <c r="J46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>303.14666093734934</v>
       </c>
       <c r="K46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>308.13104480298307</v>
       </c>
       <c r="L46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>313.1456119665342</v>
       </c>
       <c r="M46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.10147626262693</v>
       </c>
       <c r="N46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.13472615642195</v>
       </c>
       <c r="O46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.11519271759857</v>
       </c>
       <c r="P46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.13426554012835</v>
       </c>
       <c r="Q46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.18355233922148</v>
       </c>
       <c r="R46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.14611427063818</v>
       </c>
       <c r="S46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.13525638330668</v>
       </c>
       <c r="T46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.11519271759857</v>
       </c>
       <c r="U46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.12888473278991</v>
       </c>
       <c r="V46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.09014458415839</v>
       </c>
       <c r="W46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.11519271759857</v>
       </c>
       <c r="X46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.11284038778177</v>
       </c>
       <c r="Y46" s="57">
-        <f t="shared" si="25"/>
+        <f t="shared" si="33"/>
         <v>293.09308391529044</v>
       </c>
       <c r="AA46" s="57">
-        <f t="shared" ref="AA46" si="26">AA33+273.15</f>
+        <f t="shared" ref="AA46" si="34">AA33+273.15</f>
         <v>293.11519271759857</v>
       </c>
       <c r="AB46" s="57">
-        <f t="shared" ref="AB46:AE46" si="27">AB33+273.15</f>
+        <f t="shared" ref="AB46:AE46" si="35">AB33+273.15</f>
         <v>293.1399251403617</v>
       </c>
       <c r="AC46" s="57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>293.05037511722406</v>
       </c>
       <c r="AD46" s="57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>293.14861809045215</v>
       </c>
       <c r="AE46" s="57">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>293.12179487179475</v>
       </c>
     </row>
-    <row r="47" spans="1:31" s="56" customFormat="1">
+    <row r="47" spans="1:42" s="56" customFormat="1">
       <c r="A47" s="56" t="s">
         <v>101</v>
       </c>
@@ -5697,119 +8572,119 @@
         <v>90</v>
       </c>
       <c r="C47" s="57">
-        <f t="shared" ref="C47:Y47" si="28">C36+273.15</f>
+        <f t="shared" ref="C47:Y47" si="36">C36+273.15</f>
         <v>294.29682689366177</v>
       </c>
       <c r="D47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.21664608339694</v>
       </c>
       <c r="E47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.35225488233681</v>
       </c>
       <c r="F47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.57886130730265</v>
       </c>
       <c r="G47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>295.14325006184663</v>
       </c>
       <c r="H47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.57886130730265</v>
       </c>
       <c r="I47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>299.22168943939931</v>
       </c>
       <c r="J47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>303.91148736331343</v>
       </c>
       <c r="K47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>308.65229050926581</v>
       </c>
       <c r="L47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>313.57345483397432</v>
       </c>
       <c r="M47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.64494411853934</v>
       </c>
       <c r="N47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.66788302030187</v>
       </c>
       <c r="O47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.57886130730265</v>
       </c>
       <c r="P47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.74539495317856</v>
       </c>
       <c r="Q47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.95517646294218</v>
       </c>
       <c r="R47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.88340227697375</v>
       </c>
       <c r="S47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>295.00451737531392</v>
       </c>
       <c r="T47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.57886130730265</v>
       </c>
       <c r="U47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.62908105804513</v>
       </c>
       <c r="V47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.46046760050325</v>
       </c>
       <c r="W47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.57886130730265</v>
       </c>
       <c r="X47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.62831839055224</v>
       </c>
       <c r="Y47" s="57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>294.45689294842822</v>
       </c>
       <c r="AA47" s="57">
-        <f t="shared" ref="AA47" si="29">AA36+273.15</f>
+        <f t="shared" ref="AA47" si="37">AA36+273.15</f>
         <v>294.57886130730265</v>
       </c>
       <c r="AB47" s="57">
-        <f t="shared" ref="AB47:AE47" si="30">AB36+273.15</f>
+        <f t="shared" ref="AB47:AE47" si="38">AB36+273.15</f>
         <v>294.73300062382947</v>
       </c>
       <c r="AC47" s="57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>294.71908408877823</v>
       </c>
       <c r="AD47" s="57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>294.40166457286438</v>
       </c>
       <c r="AE47" s="57">
-        <f t="shared" si="30"/>
+        <f t="shared" si="38"/>
         <v>294.37408177408201</v>
       </c>
     </row>
-    <row r="48" spans="1:31" s="56" customFormat="1">
+    <row r="48" spans="1:42" s="56" customFormat="1">
       <c r="A48" s="32" t="s">
         <v>71</v>
       </c>
@@ -5817,115 +8692,115 @@
         <v>89</v>
       </c>
       <c r="C48" s="57">
-        <f t="shared" ref="C48:Y48" si="31">C37/3600</f>
+        <f t="shared" ref="C48:Y48" si="39">C37/3600</f>
         <v>1.0791274666666665E-3</v>
       </c>
       <c r="D48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>1.5744281599999997E-3</v>
       </c>
       <c r="E48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>1.9465498666666667E-3</v>
       </c>
       <c r="F48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.9802457599999999E-3</v>
       </c>
       <c r="G48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>3.9183833599999995E-3</v>
       </c>
       <c r="H48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.9802457599999999E-3</v>
       </c>
       <c r="I48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.5700625066666666E-3</v>
       </c>
       <c r="J48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.1235246933333334E-3</v>
       </c>
       <c r="K48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>1.5609421866666663E-3</v>
       </c>
       <c r="L48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>9.935384533333333E-4</v>
       </c>
       <c r="M48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.9378886400000001E-3</v>
       </c>
       <c r="N48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.8567750399999996E-3</v>
       </c>
       <c r="O48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.9802457599999999E-3</v>
       </c>
       <c r="P48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>3.0446920533333329E-3</v>
       </c>
       <c r="Q48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>3.1019777066666663E-3</v>
       </c>
       <c r="R48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.7461594666666673E-3</v>
       </c>
       <c r="S48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.8241684266666666E-3</v>
       </c>
       <c r="T48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.9802457599999999E-3</v>
       </c>
       <c r="U48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>3.2108769066666668E-3</v>
       </c>
       <c r="V48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>3.3036054400000002E-3</v>
       </c>
       <c r="W48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>2.9802457599999999E-3</v>
       </c>
       <c r="X48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>9.7313013333333309E-4</v>
       </c>
       <c r="Y48" s="57">
-        <f t="shared" si="31"/>
+        <f t="shared" si="39"/>
         <v>1.3370305066666666E-3</v>
       </c>
       <c r="AA48" s="57">
-        <f t="shared" ref="AA48" si="32">AA37/3600</f>
+        <f t="shared" ref="AA48" si="40">AA37/3600</f>
         <v>2.9802457599999999E-3</v>
       </c>
       <c r="AB48" s="57">
-        <f t="shared" ref="AB48:AE48" si="33">AB37/3600</f>
+        <f t="shared" ref="AB48:AE48" si="41">AB37/3600</f>
         <v>1.8809364341085273E-3</v>
       </c>
       <c r="AC48" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>1.5352870399999998E-3</v>
       </c>
       <c r="AD48" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>8.5928448000000001E-4</v>
       </c>
       <c r="AE48" s="57">
-        <f t="shared" si="33"/>
+        <f t="shared" si="41"/>
         <v>8.9403596384000003E-5</v>
       </c>
     </row>
@@ -6388,82 +9263,82 @@
       </c>
       <c r="H59" s="17"/>
       <c r="I59" s="24">
-        <f t="shared" ref="I59:N59" si="34">I58*0.0005</f>
+        <f t="shared" ref="I59:N59" si="42">I58*0.0005</f>
         <v>2.51885E-3</v>
       </c>
       <c r="J59" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>2.0999450000000002E-3</v>
       </c>
       <c r="K59" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>1.4890823500000002E-3</v>
       </c>
       <c r="L59" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>1.0682052500000001E-3</v>
       </c>
       <c r="M59" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>2.8806469500000003E-3</v>
       </c>
       <c r="N59" s="24">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>2.8756708999999997E-3</v>
       </c>
       <c r="O59" s="24"/>
       <c r="P59" s="24">
-        <f t="shared" ref="P59:Q59" si="35">P58*0.0005</f>
+        <f t="shared" ref="P59:Q59" si="43">P58*0.0005</f>
         <v>3.2439937500000002E-3</v>
       </c>
       <c r="Q59" s="24">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>3.3747971000000002E-3</v>
       </c>
       <c r="R59" s="24">
-        <f t="shared" ref="R59:S59" si="36">R58*0.0005</f>
+        <f t="shared" ref="R59:S59" si="44">R58*0.0005</f>
         <v>2.8682699E-3</v>
       </c>
       <c r="S59" s="24">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>3.0008037E-3</v>
       </c>
       <c r="T59" s="24"/>
       <c r="U59" s="24">
-        <f t="shared" ref="U59" si="37">U58*0.0005</f>
+        <f t="shared" ref="U59" si="45">U58*0.0005</f>
         <v>3.13639785E-3</v>
       </c>
       <c r="V59" s="24">
-        <f t="shared" ref="V59" si="38">V58*0.0005</f>
+        <f t="shared" ref="V59" si="46">V58*0.0005</f>
         <v>3.1832208500000001E-3</v>
       </c>
       <c r="W59" s="24"/>
       <c r="X59" s="24">
-        <f t="shared" ref="X59:AA59" si="39">X58*0.0005</f>
+        <f t="shared" ref="X59:AA59" si="47">X58*0.0005</f>
         <v>9.6570500000000008E-4</v>
       </c>
       <c r="Y59" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1.3398850000000001E-3</v>
       </c>
       <c r="AA59" s="24">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3.0614349999999999E-3</v>
       </c>
       <c r="AB59" s="24">
-        <f t="shared" ref="AB59:AD59" si="40">AB58*0.0005</f>
+        <f t="shared" ref="AB59:AD59" si="48">AB58*0.0005</f>
         <v>2.9427200000000002E-3</v>
       </c>
       <c r="AC59" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.7862800000000004E-3</v>
       </c>
       <c r="AD59" s="24">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2.6076800000000002E-3</v>
       </c>
       <c r="AE59" s="24">
-        <f t="shared" ref="AE59" si="41">AE58*0.0005</f>
+        <f t="shared" ref="AE59" si="49">AE58*0.0005</f>
         <v>2.4034E-3</v>
       </c>
     </row>
@@ -6480,94 +9355,94 @@
         <v>1.2004269863037987E-3</v>
       </c>
       <c r="E60" s="24">
-        <f t="shared" ref="E60:G60" si="42">(E43-E56)/E43</f>
+        <f t="shared" ref="E60:G60" si="50">(E43-E56)/E43</f>
         <v>9.4837740783661011E-4</v>
       </c>
       <c r="F60" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>1.5239093019371039E-3</v>
       </c>
       <c r="G60" s="24">
-        <f t="shared" si="42"/>
+        <f t="shared" si="50"/>
         <v>2.7766419425072604E-3</v>
       </c>
       <c r="I60" s="24">
-        <f t="shared" ref="I60:J60" si="43">(I43-I56)/I43</f>
+        <f t="shared" ref="I60:J60" si="51">(I43-I56)/I43</f>
         <v>5.4257900331065141E-4</v>
       </c>
       <c r="J60" s="24">
-        <f t="shared" si="43"/>
+        <f t="shared" si="51"/>
         <v>-3.047658414628378E-4</v>
       </c>
       <c r="K60" s="24">
-        <f t="shared" ref="K60:L60" si="44">(K43-K56)/K43</f>
+        <f t="shared" ref="K60:L60" si="52">(K43-K56)/K43</f>
         <v>-6.289088186317677E-4</v>
       </c>
       <c r="L60" s="24">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>-8.3745845515194241E-4</v>
       </c>
       <c r="M60" s="24">
-        <f t="shared" ref="M60:N60" si="45">(M43-M56)/M43</f>
+        <f t="shared" ref="M60:N60" si="53">(M43-M56)/M43</f>
         <v>5.727340665342434E-3</v>
       </c>
       <c r="N60" s="24">
-        <f t="shared" si="45"/>
+        <f t="shared" si="53"/>
         <v>2.1438115982229866E-3</v>
       </c>
       <c r="O60" s="24"/>
       <c r="P60" s="24">
-        <f t="shared" ref="P60" si="46">(P43-P56)/P43</f>
+        <f t="shared" ref="P60" si="54">(P43-P56)/P43</f>
         <v>1.3842986815541562E-3</v>
       </c>
       <c r="Q60" s="24">
-        <f t="shared" ref="Q60:R60" si="47">(Q43-Q56)/Q43</f>
+        <f t="shared" ref="Q60:R60" si="55">(Q43-Q56)/Q43</f>
         <v>1.0586285541768043E-3</v>
       </c>
       <c r="R60" s="24">
-        <f t="shared" si="47"/>
+        <f t="shared" si="55"/>
         <v>4.606426134000754E-4</v>
       </c>
       <c r="S60" s="24">
-        <f t="shared" ref="S60:U60" si="48">(S43-S56)/S43</f>
+        <f t="shared" ref="S60:U60" si="56">(S43-S56)/S43</f>
         <v>1.0571344233480612E-3</v>
       </c>
       <c r="T60" s="24"/>
       <c r="U60" s="24">
-        <f t="shared" si="48"/>
+        <f t="shared" si="56"/>
         <v>1.3903856493660976E-3</v>
       </c>
       <c r="V60" s="24">
-        <f t="shared" ref="V60:X60" si="49">(V43-V56)/V43</f>
+        <f t="shared" ref="V60:X60" si="57">(V43-V56)/V43</f>
         <v>1.458162196645917E-3</v>
       </c>
       <c r="W60" s="24"/>
       <c r="X60" s="24">
-        <f t="shared" si="49"/>
+        <f t="shared" si="57"/>
         <v>7.9435894865143128E-4</v>
       </c>
       <c r="Y60" s="24">
-        <f t="shared" ref="Y60:AA60" si="50">(Y43-Y56)/Y43</f>
+        <f t="shared" ref="Y60:AA60" si="58">(Y43-Y56)/Y43</f>
         <v>2.511430174707145E-4</v>
       </c>
       <c r="AA60" s="24">
-        <f t="shared" si="50"/>
+        <f t="shared" si="58"/>
         <v>2.4822301769539686E-3</v>
       </c>
       <c r="AB60" s="24">
-        <f t="shared" ref="AB60:AD60" si="51">(AB43-AB56)/AB43</f>
+        <f t="shared" ref="AB60:AD60" si="59">(AB43-AB56)/AB43</f>
         <v>3.1114321153796953E-3</v>
       </c>
       <c r="AC60" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>4.8428986677061473E-3</v>
       </c>
       <c r="AD60" s="24">
-        <f t="shared" si="51"/>
+        <f t="shared" si="59"/>
         <v>1.7105278861868545E-3</v>
       </c>
       <c r="AE60" s="24">
-        <f t="shared" ref="AE60" si="52">(AE43-AE56)/AE43</f>
+        <f t="shared" ref="AE60" si="60">(AE43-AE56)/AE43</f>
         <v>3.4669720123319979E-3</v>
       </c>
     </row>
@@ -6584,94 +9459,94 @@
         <v>-7.9313634938556589E-4</v>
       </c>
       <c r="E61" s="24">
-        <f t="shared" ref="E61:G61" si="53">(E47-E57)/E47</f>
+        <f t="shared" ref="E61:G61" si="61">(E47-E57)/E47</f>
         <v>-1.3512555486357143E-3</v>
       </c>
       <c r="F61" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-2.5838197938558632E-3</v>
       </c>
       <c r="G61" s="24">
-        <f t="shared" si="53"/>
+        <f t="shared" si="61"/>
         <v>-4.4952745416857081E-3</v>
       </c>
       <c r="I61" s="24">
-        <f t="shared" ref="I61:J61" si="54">(I47-I57)/I47</f>
+        <f t="shared" ref="I61:J61" si="62">(I47-I57)/I47</f>
         <v>-2.4340166047628E-3</v>
       </c>
       <c r="J61" s="24">
-        <f t="shared" si="54"/>
+        <f t="shared" si="62"/>
         <v>-1.9035563338051613E-3</v>
       </c>
       <c r="K61" s="24">
-        <f t="shared" ref="K61:L61" si="55">(K47-K57)/K47</f>
+        <f t="shared" ref="K61:L61" si="63">(K47-K57)/K47</f>
         <v>-1.2512121329052266E-3</v>
       </c>
       <c r="L61" s="24">
-        <f t="shared" si="55"/>
+        <f t="shared" si="63"/>
         <v>-5.7847742922529646E-4</v>
       </c>
       <c r="M61" s="24">
-        <f t="shared" ref="M61:N61" si="56">(M47-M57)/M47</f>
+        <f t="shared" ref="M61:N61" si="64">(M47-M57)/M47</f>
         <v>-2.3153490160897345E-3</v>
       </c>
       <c r="N61" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="64"/>
         <v>-2.3381814558007786E-3</v>
       </c>
       <c r="O61" s="24"/>
       <c r="P61" s="24">
-        <f t="shared" ref="P61" si="57">(P47-P57)/P47</f>
+        <f t="shared" ref="P61" si="65">(P47-P57)/P47</f>
         <v>-2.2733011551473695E-3</v>
       </c>
       <c r="Q61" s="24">
-        <f t="shared" ref="Q61:R61" si="58">(Q47-Q57)/Q47</f>
+        <f t="shared" ref="Q61:R61" si="66">(Q47-Q57)/Q47</f>
         <v>-2.0176405926973472E-3</v>
       </c>
       <c r="R61" s="24">
-        <f t="shared" si="58"/>
+        <f t="shared" si="66"/>
         <v>-5.5541875547402255E-3</v>
       </c>
       <c r="S61" s="24">
-        <f t="shared" ref="S61:U61" si="59">(S47-S57)/S47</f>
+        <f t="shared" ref="S61:U61" si="67">(S47-S57)/S47</f>
         <v>-2.601901257361215E-3</v>
       </c>
       <c r="T61" s="24"/>
       <c r="U61" s="24">
-        <f t="shared" si="59"/>
+        <f t="shared" si="67"/>
         <v>-1.076129147931664E-3</v>
       </c>
       <c r="V61" s="24">
-        <f t="shared" ref="V61:X61" si="60">(V47-V57)/V47</f>
+        <f t="shared" ref="V61:X61" si="68">(V47-V57)/V47</f>
         <v>-6.877744953237417E-4</v>
       </c>
       <c r="W61" s="24"/>
       <c r="X61" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="68"/>
         <v>-5.7591751660082495E-4</v>
       </c>
       <c r="Y61" s="24">
-        <f t="shared" ref="Y61:AA61" si="61">(Y47-Y57)/Y47</f>
+        <f t="shared" ref="Y61:AA61" si="69">(Y47-Y57)/Y47</f>
         <v>-1.6179178106562233E-3</v>
       </c>
       <c r="AA61" s="24">
-        <f t="shared" si="61"/>
+        <f t="shared" si="69"/>
         <v>-2.8723673142815225E-3</v>
       </c>
       <c r="AB61" s="24">
-        <f t="shared" ref="AB61:AD61" si="62">(AB47-AB57)/AB47</f>
+        <f t="shared" ref="AB61:AD61" si="70">(AB47-AB57)/AB47</f>
         <v>-2.290206304492027E-3</v>
       </c>
       <c r="AC61" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>-2.198418582987369E-3</v>
       </c>
       <c r="AD61" s="24">
-        <f t="shared" si="62"/>
+        <f t="shared" si="70"/>
         <v>-3.1023446435357051E-3</v>
       </c>
       <c r="AE61" s="24">
-        <f t="shared" ref="AE61" si="63">(AE47-AE57)/AE47</f>
+        <f t="shared" ref="AE61" si="71">(AE47-AE57)/AE47</f>
         <v>-3.0094980528818289E-3</v>
       </c>
     </row>
@@ -6688,28 +9563,28 @@
         <v>-6.5537445671729399E-4</v>
       </c>
       <c r="E62" s="55">
-        <f t="shared" ref="E62:G62" si="64">(E48-E59)/E48</f>
+        <f t="shared" ref="E62:G62" si="72">(E48-E59)/E48</f>
         <v>4.4822209880538222E-3</v>
       </c>
       <c r="F62" s="55">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>3.1125204922697346E-2</v>
       </c>
       <c r="G62" s="55">
-        <f t="shared" si="64"/>
+        <f t="shared" si="72"/>
         <v>1.7975106958396075E-2</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="55">
-        <f t="shared" ref="I62:J62" si="65">(I48-I59)/I48</f>
+        <f t="shared" ref="I62:J62" si="73">(I48-I59)/I48</f>
         <v>1.9926560748551023E-2</v>
       </c>
       <c r="J62" s="55">
-        <f t="shared" si="65"/>
+        <f t="shared" si="73"/>
         <v>1.1104035383887956E-2</v>
       </c>
       <c r="K62" s="55">
-        <f t="shared" ref="K62" si="66">(K48-K59)/K48</f>
+        <f t="shared" ref="K62" si="74">(K48-K59)/K48</f>
         <v>4.6036193576214461E-2</v>
       </c>
       <c r="L62" s="55">
@@ -6726,57 +9601,57 @@
       </c>
       <c r="O62" s="55"/>
       <c r="P62" s="55">
-        <f t="shared" ref="P62" si="67">(P48-P59)/P48</f>
+        <f t="shared" ref="P62" si="75">(P48-P59)/P48</f>
         <v>-6.545873709903488E-2</v>
       </c>
       <c r="Q62" s="55">
-        <f t="shared" ref="Q62:R62" si="68">(Q48-Q59)/Q48</f>
+        <f t="shared" ref="Q62:R62" si="76">(Q48-Q59)/Q48</f>
         <v>-8.7950146368556942E-2</v>
       </c>
       <c r="R62" s="55">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>-4.446589311929227E-2</v>
       </c>
       <c r="S62" s="55">
-        <f t="shared" ref="S62:U62" si="69">(S48-S59)/S48</f>
+        <f t="shared" ref="S62:U62" si="77">(S48-S59)/S48</f>
         <v>-6.2544171114402705E-2</v>
       </c>
       <c r="T62" s="55"/>
       <c r="U62" s="55">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>2.3195861701215525E-2</v>
       </c>
       <c r="V62" s="55">
-        <f t="shared" ref="V62:X62" si="70">(V48-V59)/V48</f>
+        <f t="shared" ref="V62:X62" si="78">(V48-V59)/V48</f>
         <v>3.6440365590389663E-2</v>
       </c>
       <c r="W62" s="55"/>
       <c r="X62" s="55">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>7.6301545692549523E-3</v>
       </c>
       <c r="Y62" s="55">
-        <f t="shared" ref="Y62:AA62" si="71">(Y48-Y59)/Y48</f>
+        <f t="shared" ref="Y62:AA62" si="79">(Y48-Y59)/Y48</f>
         <v>-2.1349500397339002E-3</v>
       </c>
       <c r="AA62" s="55">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>-2.7242464728814877E-2</v>
       </c>
       <c r="AB62" s="55">
-        <f t="shared" ref="AB62:AD62" si="72">(AB48-AB59)/AB48</f>
+        <f t="shared" ref="AB62:AD62" si="80">(AB48-AB59)/AB48</f>
         <v>-0.5644973145489135</v>
       </c>
       <c r="AC62" s="55">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>-0.81482675708641472</v>
       </c>
       <c r="AD62" s="55">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>-2.0347109260020622</v>
       </c>
       <c r="AE62" s="55">
-        <f t="shared" ref="AE62" si="73">(AE48-AE59)/AE48</f>
+        <f t="shared" ref="AE62" si="81">(AE48-AE59)/AE48</f>
         <v>-25.882587470833794</v>
       </c>
     </row>
@@ -6793,94 +9668,94 @@
         <v>1.5810141987599514E-3</v>
       </c>
       <c r="E63" s="24">
-        <f t="shared" ref="E63:G63" si="74">SQRT(E60^2+E61^2+E62^2)</f>
+        <f t="shared" ref="E63:G63" si="82">SQRT(E60^2+E61^2+E62^2)</f>
         <v>4.7765695065772754E-3</v>
       </c>
       <c r="F63" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>3.1269422856323316E-2</v>
       </c>
       <c r="G63" s="24">
-        <f t="shared" si="74"/>
+        <f t="shared" si="82"/>
         <v>1.8735573219087726E-2</v>
       </c>
       <c r="I63" s="24">
-        <f t="shared" ref="I63:J63" si="75">SQRT(I60^2+I61^2+I62^2)</f>
+        <f t="shared" ref="I63:J63" si="83">SQRT(I60^2+I61^2+I62^2)</f>
         <v>2.0081998209162077E-2</v>
       </c>
       <c r="J63" s="24">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>1.1270138008947718E-2</v>
       </c>
       <c r="K63" s="24">
-        <f t="shared" ref="K63:L63" si="76">SQRT(K60^2+K61^2+K62^2)</f>
+        <f t="shared" ref="K63:L63" si="84">SQRT(K60^2+K61^2+K62^2)</f>
         <v>4.6057487741846835E-2</v>
       </c>
       <c r="L63" s="24">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>7.5159289553528977E-2</v>
       </c>
       <c r="M63" s="24">
-        <f t="shared" ref="M63:N63" si="77">SQRT(M60^2+M61^2+M62^2)</f>
+        <f t="shared" ref="M63:N63" si="85">SQRT(M60^2+M61^2+M62^2)</f>
         <v>2.0439857481210747E-2</v>
       </c>
       <c r="N63" s="24">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>7.3357577165551E-3</v>
       </c>
       <c r="O63" s="24"/>
       <c r="P63" s="24">
-        <f t="shared" ref="P63" si="78">SQRT(P60^2+P61^2+P62^2)</f>
+        <f t="shared" ref="P63" si="86">SQRT(P60^2+P61^2+P62^2)</f>
         <v>6.5512826557723128E-2</v>
       </c>
       <c r="Q63" s="24">
-        <f t="shared" ref="Q63:R63" si="79">SQRT(Q60^2+Q61^2+Q62^2)</f>
+        <f t="shared" ref="Q63:R63" si="87">SQRT(Q60^2+Q61^2+Q62^2)</f>
         <v>8.7979655683729563E-2</v>
       </c>
       <c r="R63" s="24">
-        <f t="shared" si="79"/>
+        <f t="shared" si="87"/>
         <v>4.481380191310301E-2</v>
       </c>
       <c r="S63" s="24">
-        <f t="shared" ref="S63:U63" si="80">SQRT(S60^2+S61^2+S62^2)</f>
+        <f t="shared" ref="S63:U63" si="88">SQRT(S60^2+S61^2+S62^2)</f>
         <v>6.2607194185091627E-2</v>
       </c>
       <c r="T63" s="24"/>
       <c r="U63" s="24">
-        <f t="shared" si="80"/>
+        <f t="shared" si="88"/>
         <v>2.3262399408893929E-2</v>
       </c>
       <c r="V63" s="24">
-        <f t="shared" ref="V63:X63" si="81">SQRT(V60^2+V61^2+V62^2)</f>
+        <f t="shared" ref="V63:X63" si="89">SQRT(V60^2+V61^2+V62^2)</f>
         <v>3.647601287297448E-2</v>
       </c>
       <c r="W63" s="24"/>
       <c r="X63" s="24">
-        <f t="shared" si="81"/>
+        <f t="shared" si="89"/>
         <v>7.692980298684802E-3</v>
       </c>
       <c r="Y63" s="24">
-        <f t="shared" ref="Y63:AA63" si="82">SQRT(Y60^2+Y61^2+Y62^2)</f>
+        <f t="shared" ref="Y63:AA63" si="90">SQRT(Y60^2+Y61^2+Y62^2)</f>
         <v>2.6904911316379962E-3</v>
       </c>
       <c r="AA63" s="24">
-        <f t="shared" si="82"/>
+        <f t="shared" si="90"/>
         <v>2.7505705683371524E-2</v>
       </c>
       <c r="AB63" s="24">
-        <f t="shared" ref="AB63:AD63" si="83">SQRT(AB60^2+AB61^2+AB62^2)</f>
+        <f t="shared" ref="AB63:AD63" si="91">SQRT(AB60^2+AB61^2+AB62^2)</f>
         <v>0.56451053505462656</v>
       </c>
       <c r="AC63" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>0.81484411440209514</v>
       </c>
       <c r="AD63" s="24">
-        <f t="shared" si="83"/>
+        <f t="shared" si="91"/>
         <v>2.0347140100859646</v>
       </c>
       <c r="AE63" s="24">
-        <f t="shared" ref="AE63" si="84">SQRT(AE60^2+AE61^2+AE62^2)</f>
+        <f t="shared" ref="AE63" si="92">SQRT(AE60^2+AE61^2+AE62^2)</f>
         <v>25.882587877998905</v>
       </c>
     </row>
@@ -6888,7 +9763,7 @@
       <c r="L64" s="54"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.11811023622047245" right="0.11811023622047245" top="0.23622047244094491" bottom="0.23622047244094491" header="0.11811023622047245" footer="0.11811023622047245"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -6899,12 +9774,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AP40"/>
   <sheetViews>
-    <sheetView topLeftCell="Y4" workbookViewId="0">
-      <selection activeCell="AL11" sqref="AL11:AP11"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
     <col min="13" max="13" width="29.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -10408,12 +13287,2335 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AE50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="11" width="9.140625" style="62"/>
+    <col min="12" max="12" width="8.5703125" style="62" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="62"/>
+    <col min="16" max="16" width="12.5703125" style="62" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="62"/>
+    <col min="19" max="19" width="32.42578125" style="62" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="62"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30">
+      <c r="A1" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="L1" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="M1" s="60" t="s">
+        <v>173</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="P1" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="U1" s="62">
+        <f t="array" ref="U1:Y1">TRANSPOSE(D3:D7)</f>
+        <v>69.566000000000003</v>
+      </c>
+      <c r="V1" s="62">
+        <v>141.60266666666666</v>
+      </c>
+      <c r="W1" s="62">
+        <v>211.26733333333334</v>
+      </c>
+      <c r="X1" s="62">
+        <v>281.44509999999997</v>
+      </c>
+      <c r="Y1" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA1" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB1" s="62">
+        <v>69.53543333333333</v>
+      </c>
+      <c r="AC1" s="62">
+        <v>141.39226666666667</v>
+      </c>
+      <c r="AD1" s="62">
+        <v>211.26166666666666</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30">
+      <c r="A2" s="63"/>
+      <c r="B2" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="F2" s="63" t="s">
+        <v>180</v>
+      </c>
+      <c r="G2" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="H2" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="J2" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="K2" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="M2" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="N2" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="O2" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="P2" s="61"/>
+      <c r="S2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="T2" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30">
+      <c r="A3" s="64" t="str">
+        <f>'[2]Primary result'!C2</f>
+        <v>#3PVDF</v>
+      </c>
+      <c r="B3" s="64">
+        <f>AVERAGE('[2]Primary result'!D2:D4)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C3" s="64">
+        <f>AVERAGE('[2]Primary result'!E2:E4)</f>
+        <v>3</v>
+      </c>
+      <c r="D3" s="64">
+        <f>AVERAGE('[2]Primary result'!F2:F4)</f>
+        <v>69.566000000000003</v>
+      </c>
+      <c r="E3" s="64">
+        <f>AVERAGE('[2]Primary result'!I2:I4)</f>
+        <v>98</v>
+      </c>
+      <c r="F3" s="64">
+        <f>AVERAGE('[2]Primary result'!J2:J4)</f>
+        <v>94</v>
+      </c>
+      <c r="G3" s="64">
+        <f>AVERAGE('[2]Primary result'!K2:K4)</f>
+        <v>19.99835666666667</v>
+      </c>
+      <c r="H3" s="64">
+        <f>AVERAGE('[2]Primary result'!L2:L4)</f>
+        <v>20.394694666666666</v>
+      </c>
+      <c r="I3" s="64">
+        <f>AVERAGE('[2]Primary result'!M2:M4)</f>
+        <v>46.787444999999998</v>
+      </c>
+      <c r="J3" s="64">
+        <f>AVERAGE('[2]Primary result'!N2:N4)</f>
+        <v>45.745317333333332</v>
+      </c>
+      <c r="K3" s="64">
+        <f>AVERAGE('[2]Primary result'!O2:O4)</f>
+        <v>4.3419814000000001E-3</v>
+      </c>
+      <c r="L3" s="65">
+        <f>STDEV('[2]Primary result'!O2:O4)</f>
+        <v>2.1969806244835174E-4</v>
+      </c>
+      <c r="M3" s="65">
+        <f>K3*0.001*3600/(B3*0.0001)</f>
+        <v>5.0019625728000001</v>
+      </c>
+      <c r="N3" s="65">
+        <f>L3*0.001*3600/(B3*0.0001)</f>
+        <v>0.25309216794050116</v>
+      </c>
+      <c r="O3" s="65">
+        <f>M3/$M$7</f>
+        <v>0.97040255071693671</v>
+      </c>
+      <c r="P3" s="65"/>
+      <c r="S3" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="T3" s="26"/>
+    </row>
+    <row r="4" spans="1:30">
+      <c r="A4" s="64" t="str">
+        <f>'[2]Primary result'!C5</f>
+        <v>#3PVDF</v>
+      </c>
+      <c r="B4" s="64">
+        <f>AVERAGE('[2]Primary result'!D5:D7)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C4" s="64">
+        <f>AVERAGE('[2]Primary result'!E5:E7)</f>
+        <v>3</v>
+      </c>
+      <c r="D4" s="64">
+        <f>AVERAGE('[2]Primary result'!F5:F7)</f>
+        <v>141.60266666666666</v>
+      </c>
+      <c r="E4" s="64">
+        <f>AVERAGE('[2]Primary result'!I5:I7)</f>
+        <v>98</v>
+      </c>
+      <c r="F4" s="64">
+        <f>AVERAGE('[2]Primary result'!J5:J7)</f>
+        <v>94</v>
+      </c>
+      <c r="G4" s="64">
+        <f>AVERAGE('[2]Primary result'!K5:K7)</f>
+        <v>20.020875999999998</v>
+      </c>
+      <c r="H4" s="64">
+        <f>AVERAGE('[2]Primary result'!L5:L7)</f>
+        <v>20.706840999999997</v>
+      </c>
+      <c r="I4" s="64">
+        <f>AVERAGE('[2]Primary result'!M5:M7)</f>
+        <v>46.972490000000001</v>
+      </c>
+      <c r="J4" s="64">
+        <f>AVERAGE('[2]Primary result'!N5:N7)</f>
+        <v>45.949279999999995</v>
+      </c>
+      <c r="K4" s="64">
+        <f>AVERAGE('[2]Primary result'!O5:O7)</f>
+        <v>3.8310854999999999E-3</v>
+      </c>
+      <c r="L4" s="65">
+        <f>STDEV('[2]Primary result'!O5:O7)</f>
+        <v>2.8011125545145457E-4</v>
+      </c>
+      <c r="M4" s="65">
+        <f t="shared" ref="M4:M13" si="0">K4*0.001*3600/(B4*0.0001)</f>
+        <v>4.4134104959999991</v>
+      </c>
+      <c r="N4" s="65">
+        <f t="shared" ref="N4:N13" si="1">L4*0.001*3600/(B4*0.0001)</f>
+        <v>0.32268816628007568</v>
+      </c>
+      <c r="O4" s="65">
+        <f t="shared" ref="O4:O7" si="2">M4/$M$7</f>
+        <v>0.85622088137334484</v>
+      </c>
+      <c r="P4" s="65"/>
+      <c r="S4" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="T4" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="U4" s="62">
+        <f t="array" ref="U4:Y5">TRANSPOSE(E3:F7)</f>
+        <v>98</v>
+      </c>
+      <c r="V4" s="62">
+        <v>98</v>
+      </c>
+      <c r="W4" s="62">
+        <v>98</v>
+      </c>
+      <c r="X4" s="62">
+        <v>98</v>
+      </c>
+      <c r="Y4" s="62">
+        <v>98</v>
+      </c>
+      <c r="AA4" s="62">
+        <v>98</v>
+      </c>
+      <c r="AB4" s="62">
+        <v>98</v>
+      </c>
+      <c r="AC4" s="62">
+        <v>98</v>
+      </c>
+      <c r="AD4" s="62">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" s="64" t="str">
+        <f>'[2]Primary result'!C8</f>
+        <v>#3PVDF</v>
+      </c>
+      <c r="B5" s="64">
+        <f>AVERAGE('[2]Primary result'!D8:D10)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C5" s="64">
+        <f>AVERAGE('[2]Primary result'!E8:E10)</f>
+        <v>3</v>
+      </c>
+      <c r="D5" s="64">
+        <f>AVERAGE('[2]Primary result'!F8:F10)</f>
+        <v>211.26733333333334</v>
+      </c>
+      <c r="E5" s="64">
+        <f>AVERAGE('[2]Primary result'!I8:I10)</f>
+        <v>98</v>
+      </c>
+      <c r="F5" s="64">
+        <f>AVERAGE('[2]Primary result'!J8:J10)</f>
+        <v>94</v>
+      </c>
+      <c r="G5" s="64">
+        <f>AVERAGE('[2]Primary result'!K8:K10)</f>
+        <v>19.863140666666666</v>
+      </c>
+      <c r="H5" s="64">
+        <f>AVERAGE('[2]Primary result'!L8:L10)</f>
+        <v>20.617133666666664</v>
+      </c>
+      <c r="I5" s="64">
+        <f>AVERAGE('[2]Primary result'!M8:M10)</f>
+        <v>46.850017999999999</v>
+      </c>
+      <c r="J5" s="64">
+        <f>AVERAGE('[2]Primary result'!N8:N10)</f>
+        <v>45.720077333333336</v>
+      </c>
+      <c r="K5" s="64">
+        <f>AVERAGE('[2]Primary result'!O8:O10)</f>
+        <v>3.0057418333333335E-3</v>
+      </c>
+      <c r="L5" s="65">
+        <f>STDEV('[2]Primary result'!O8:O10)</f>
+        <v>1.264932789073133E-4</v>
+      </c>
+      <c r="M5" s="65">
+        <f t="shared" si="0"/>
+        <v>3.462614592</v>
+      </c>
+      <c r="N5" s="65">
+        <f t="shared" si="1"/>
+        <v>0.14572025730122493</v>
+      </c>
+      <c r="O5" s="65">
+        <f t="shared" si="2"/>
+        <v>0.67176232994993212</v>
+      </c>
+      <c r="P5" s="65"/>
+      <c r="S5" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T5" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="U5" s="62">
+        <v>94</v>
+      </c>
+      <c r="V5" s="62">
+        <v>94</v>
+      </c>
+      <c r="W5" s="62">
+        <v>94</v>
+      </c>
+      <c r="X5" s="62">
+        <v>94</v>
+      </c>
+      <c r="Y5" s="62">
+        <v>94</v>
+      </c>
+      <c r="AA5" s="62">
+        <v>94</v>
+      </c>
+      <c r="AB5" s="62">
+        <v>94</v>
+      </c>
+      <c r="AC5" s="62">
+        <v>94</v>
+      </c>
+      <c r="AD5" s="62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" s="64" t="str">
+        <f>'[2]Primary result'!C11</f>
+        <v>#3PVDF</v>
+      </c>
+      <c r="B6" s="64">
+        <f>AVERAGE('[2]Primary result'!D11:D13)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C6" s="64">
+        <f>AVERAGE('[2]Primary result'!E11:E13)</f>
+        <v>3</v>
+      </c>
+      <c r="D6" s="64">
+        <f>AVERAGE('[2]Primary result'!F11:F13)</f>
+        <v>281.44509999999997</v>
+      </c>
+      <c r="E6" s="64">
+        <f>AVERAGE('[2]Primary result'!I11:I13)</f>
+        <v>98</v>
+      </c>
+      <c r="F6" s="64">
+        <f>AVERAGE('[2]Primary result'!J11:J13)</f>
+        <v>94</v>
+      </c>
+      <c r="G6" s="64">
+        <f>AVERAGE('[2]Primary result'!K11:K13)</f>
+        <v>20.115232666666667</v>
+      </c>
+      <c r="H6" s="64">
+        <f>AVERAGE('[2]Primary result'!L11:L13)</f>
+        <v>20.743951333333332</v>
+      </c>
+      <c r="I6" s="64">
+        <f>AVERAGE('[2]Primary result'!M11:M13)</f>
+        <v>46.907367000000001</v>
+      </c>
+      <c r="J6" s="64">
+        <f>AVERAGE('[2]Primary result'!N11:N13)</f>
+        <v>45.758546666666668</v>
+      </c>
+      <c r="K6" s="64">
+        <f>AVERAGE('[2]Primary result'!O11:O13)</f>
+        <v>2.6088758666666669E-3</v>
+      </c>
+      <c r="L6" s="65">
+        <f>STDEV('[2]Primary result'!O11:O13)</f>
+        <v>4.0453452375332879E-5</v>
+      </c>
+      <c r="M6" s="65">
+        <f t="shared" si="0"/>
+        <v>3.0054249984000001</v>
+      </c>
+      <c r="N6" s="65">
+        <f t="shared" si="1"/>
+        <v>4.6602377136383481E-2</v>
+      </c>
+      <c r="O6" s="65">
+        <f t="shared" si="2"/>
+        <v>0.58306555516732339</v>
+      </c>
+      <c r="P6" s="65"/>
+      <c r="S6" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="26"/>
+    </row>
+    <row r="7" spans="1:30">
+      <c r="A7" s="64" t="str">
+        <f>'[2]Primary result'!C14</f>
+        <v>#3PVDF</v>
+      </c>
+      <c r="B7" s="64">
+        <f>AVERAGE('[2]Primary result'!D14:D116)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C7" s="64">
+        <f>AVERAGE('[2]Primary result'!E14:E16)</f>
+        <v>3</v>
+      </c>
+      <c r="D7" s="64">
+        <f>AVERAGE('[2]Primary result'!F14:F16)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="64">
+        <f>AVERAGE('[2]Primary result'!I14:I16)</f>
+        <v>98</v>
+      </c>
+      <c r="F7" s="64">
+        <f>AVERAGE('[2]Primary result'!J14:J16)</f>
+        <v>94</v>
+      </c>
+      <c r="G7" s="64">
+        <f>AVERAGE('[2]Primary result'!K14:K16)</f>
+        <v>19.889080666666665</v>
+      </c>
+      <c r="H7" s="64">
+        <f>AVERAGE('[2]Primary result'!L14:L16)</f>
+        <v>20.753770333333332</v>
+      </c>
+      <c r="I7" s="64">
+        <f>AVERAGE('[2]Primary result'!M14:M16)</f>
+        <v>46.941147000000001</v>
+      </c>
+      <c r="J7" s="64">
+        <f>AVERAGE('[2]Primary result'!N14:N16)</f>
+        <v>45.631227333333328</v>
+      </c>
+      <c r="K7" s="64">
+        <f>AVERAGE('[2]Primary result'!O14:O16)</f>
+        <v>4.4744125999999999E-3</v>
+      </c>
+      <c r="L7" s="65">
+        <f>STDEV('[2]Primary result'!O14:O16)</f>
+        <v>1.6893516620251068E-4</v>
+      </c>
+      <c r="M7" s="65">
+        <f t="shared" si="0"/>
+        <v>5.1545233151999996</v>
+      </c>
+      <c r="N7" s="65">
+        <f t="shared" si="1"/>
+        <v>0.19461331146529232</v>
+      </c>
+      <c r="O7" s="65">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P7" s="65"/>
+      <c r="S7" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="T7" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" s="67" customFormat="1">
+      <c r="A8" s="66"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="66"/>
+      <c r="S8" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="T8" s="26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
+      <c r="A9" s="64" t="str">
+        <f>'[2]Primary result'!C17</f>
+        <v>#1PTFE</v>
+      </c>
+      <c r="B9" s="64">
+        <f>AVERAGE('[2]Primary result'!D17:D19)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C9" s="64">
+        <f>AVERAGE('[2]Primary result'!E17:E19)</f>
+        <v>3</v>
+      </c>
+      <c r="D9" s="64">
+        <f>AVERAGE('[2]Primary result'!F17:F19)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="64">
+        <f>AVERAGE('[2]Primary result'!I17:I19)</f>
+        <v>98</v>
+      </c>
+      <c r="F9" s="64">
+        <f>AVERAGE('[2]Primary result'!J17:J19)</f>
+        <v>94</v>
+      </c>
+      <c r="G9" s="64">
+        <f>AVERAGE('[2]Primary result'!K17:K19)</f>
+        <v>19.948305666666666</v>
+      </c>
+      <c r="H9" s="64">
+        <f>AVERAGE('[2]Primary result'!L17:L19)</f>
+        <v>21.060659666666666</v>
+      </c>
+      <c r="I9" s="64">
+        <f>AVERAGE('[2]Primary result'!M17:M19)</f>
+        <v>46.908647666666667</v>
+      </c>
+      <c r="J9" s="64">
+        <f>AVERAGE('[2]Primary result'!N17:N19)</f>
+        <v>45.504165</v>
+      </c>
+      <c r="K9" s="64">
+        <f>AVERAGE('[2]Primary result'!O17:O19)</f>
+        <v>3.6647837333333333E-3</v>
+      </c>
+      <c r="L9" s="65">
+        <f>STDEV('[2]Primary result'!O17:O19)</f>
+        <v>6.7665665921421586E-4</v>
+      </c>
+      <c r="M9" s="65">
+        <f t="shared" si="0"/>
+        <v>4.2218308607999999</v>
+      </c>
+      <c r="N9" s="65">
+        <f t="shared" si="1"/>
+        <v>0.77950847141477664</v>
+      </c>
+      <c r="O9" s="65">
+        <f>M9/$M$9</f>
+        <v>1</v>
+      </c>
+      <c r="P9" s="65"/>
+      <c r="S9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="T9" s="26"/>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="A10" s="64" t="str">
+        <f>'[2]Primary result'!C20</f>
+        <v>#1PTFE</v>
+      </c>
+      <c r="B10" s="64">
+        <f>AVERAGE('[2]Primary result'!D20:D22)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C10" s="64">
+        <f>AVERAGE('[2]Primary result'!E20:E22)</f>
+        <v>3</v>
+      </c>
+      <c r="D10" s="64">
+        <f>AVERAGE('[2]Primary result'!F20:F22)</f>
+        <v>69.53543333333333</v>
+      </c>
+      <c r="E10" s="64">
+        <f>AVERAGE('[2]Primary result'!I20:I22)</f>
+        <v>98</v>
+      </c>
+      <c r="F10" s="64">
+        <f>AVERAGE('[2]Primary result'!J20:J22)</f>
+        <v>94</v>
+      </c>
+      <c r="G10" s="64">
+        <f>AVERAGE('[2]Primary result'!K20:K22)</f>
+        <v>19.895390333333335</v>
+      </c>
+      <c r="H10" s="64">
+        <f>AVERAGE('[2]Primary result'!L20:L22)</f>
+        <v>20.886816333333332</v>
+      </c>
+      <c r="I10" s="64">
+        <f>AVERAGE('[2]Primary result'!M20:M22)</f>
+        <v>46.87154833333333</v>
+      </c>
+      <c r="J10" s="64">
+        <f>AVERAGE('[2]Primary result'!N20:N22)</f>
+        <v>45.49707033333334</v>
+      </c>
+      <c r="K10" s="64">
+        <f>AVERAGE('[2]Primary result'!O20:O22)</f>
+        <v>2.4332200666666668E-3</v>
+      </c>
+      <c r="L10" s="65">
+        <f>STDEV('[2]Primary result'!O20:O22)</f>
+        <v>1.5113969249675374E-4</v>
+      </c>
+      <c r="M10" s="65">
+        <f t="shared" si="0"/>
+        <v>2.8030695167999999</v>
+      </c>
+      <c r="N10" s="65">
+        <f t="shared" si="1"/>
+        <v>0.17411292575626031</v>
+      </c>
+      <c r="O10" s="65">
+        <f t="shared" ref="O10:O13" si="3">M10/$M$9</f>
+        <v>0.66394642732533415</v>
+      </c>
+      <c r="P10" s="65"/>
+      <c r="S10" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T10" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" s="64" t="str">
+        <f>'[2]Primary result'!C23</f>
+        <v>#1PTFE</v>
+      </c>
+      <c r="B11" s="64">
+        <f>AVERAGE('[2]Primary result'!D23:D25)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C11" s="64">
+        <f>AVERAGE('[2]Primary result'!E23:E25)</f>
+        <v>3</v>
+      </c>
+      <c r="D11" s="64">
+        <f>AVERAGE('[2]Primary result'!F23:F25)</f>
+        <v>141.39226666666667</v>
+      </c>
+      <c r="E11" s="64">
+        <f>AVERAGE('[2]Primary result'!I23:I25)</f>
+        <v>98</v>
+      </c>
+      <c r="F11" s="64">
+        <f>AVERAGE('[2]Primary result'!J23:J25)</f>
+        <v>94</v>
+      </c>
+      <c r="G11" s="64">
+        <f>AVERAGE('[2]Primary result'!K23:K25)</f>
+        <v>19.898199000000002</v>
+      </c>
+      <c r="H11" s="64">
+        <f>AVERAGE('[2]Primary result'!L23:L25)</f>
+        <v>20.737005333333332</v>
+      </c>
+      <c r="I11" s="64">
+        <f>AVERAGE('[2]Primary result'!M23:M25)</f>
+        <v>46.776664000000004</v>
+      </c>
+      <c r="J11" s="64">
+        <f>AVERAGE('[2]Primary result'!N23:N25)</f>
+        <v>45.505756999999996</v>
+      </c>
+      <c r="K11" s="64">
+        <f>AVERAGE('[2]Primary result'!O23:O25)</f>
+        <v>1.3501018666666666E-3</v>
+      </c>
+      <c r="L11" s="65">
+        <f>STDEV('[2]Primary result'!O23:O25)</f>
+        <v>1.1978061728461465E-4</v>
+      </c>
+      <c r="M11" s="65">
+        <f t="shared" si="0"/>
+        <v>1.5553173503999997</v>
+      </c>
+      <c r="N11" s="65">
+        <f t="shared" si="1"/>
+        <v>0.13798727111187606</v>
+      </c>
+      <c r="O11" s="65">
+        <f t="shared" si="3"/>
+        <v>0.36839878282221866</v>
+      </c>
+      <c r="P11" s="65"/>
+      <c r="S11" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U11" s="71">
+        <f t="array" ref="U11:Y11">TRANSPOSE(I3:I7)</f>
+        <v>46.787444999999998</v>
+      </c>
+      <c r="V11" s="71">
+        <v>46.972490000000001</v>
+      </c>
+      <c r="W11" s="71">
+        <v>46.850017999999999</v>
+      </c>
+      <c r="X11" s="71">
+        <v>46.907367000000001</v>
+      </c>
+      <c r="Y11" s="71">
+        <v>46.941147000000001</v>
+      </c>
+      <c r="AA11" s="71">
+        <v>46.908647666666667</v>
+      </c>
+      <c r="AB11" s="71">
+        <v>46.87154833333333</v>
+      </c>
+      <c r="AC11" s="71">
+        <v>46.776664000000004</v>
+      </c>
+      <c r="AD11" s="71">
+        <v>47.191884333333327</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" s="64" t="str">
+        <f>'[2]Primary result'!C26</f>
+        <v>#1PTFE</v>
+      </c>
+      <c r="B12" s="64">
+        <f>AVERAGE('[2]Primary result'!D26:D28)</f>
+        <v>31.25</v>
+      </c>
+      <c r="C12" s="64">
+        <f>AVERAGE('[2]Primary result'!E26:E28)</f>
+        <v>3</v>
+      </c>
+      <c r="D12" s="64">
+        <f>AVERAGE('[2]Primary result'!F26:F28)</f>
+        <v>211.26166666666666</v>
+      </c>
+      <c r="E12" s="64">
+        <f>AVERAGE('[2]Primary result'!I26:I28)</f>
+        <v>98</v>
+      </c>
+      <c r="F12" s="64">
+        <f>AVERAGE('[2]Primary result'!J26:J28)</f>
+        <v>94</v>
+      </c>
+      <c r="G12" s="64">
+        <f>AVERAGE('[2]Primary result'!K26:K28)</f>
+        <v>20.074282999999998</v>
+      </c>
+      <c r="H12" s="64">
+        <f>AVERAGE('[2]Primary result'!L26:L28)</f>
+        <v>20.766840666666663</v>
+      </c>
+      <c r="I12" s="64">
+        <f>AVERAGE('[2]Primary result'!M26:M28)</f>
+        <v>47.191884333333327</v>
+      </c>
+      <c r="J12" s="64">
+        <f>AVERAGE('[2]Primary result'!N26:N28)</f>
+        <v>45.912472999999999</v>
+      </c>
+      <c r="K12" s="64">
+        <f>AVERAGE('[2]Primary result'!O26:O28)</f>
+        <v>2.1373400000000001E-4</v>
+      </c>
+      <c r="L12" s="65">
+        <f>STDEV('[2]Primary result'!O26:O28)</f>
+        <v>1.0830301265980553E-4</v>
+      </c>
+      <c r="M12" s="65">
+        <f t="shared" si="0"/>
+        <v>0.24622156800000003</v>
+      </c>
+      <c r="N12" s="65">
+        <f t="shared" si="1"/>
+        <v>0.12476507058409597</v>
+      </c>
+      <c r="O12" s="65">
+        <f t="shared" si="3"/>
+        <v>5.8321040353886466E-2</v>
+      </c>
+      <c r="P12" s="65"/>
+      <c r="S12" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="64">
+        <f>'[2]Primary result'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!D29:D31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!E29:E31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!F29:F31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!I29:I31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!J29:J31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!K29:K31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!L29:L31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!M29:M31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!N29:N31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K13" s="64" t="e">
+        <f>AVERAGE('[2]Primary result'!O29:O31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L13" s="65" t="e">
+        <f>STDEV('[2]Primary result'!O29:O31)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M13" s="65" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N13" s="65" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O13" s="65" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P13" s="68" t="s">
+        <v>186</v>
+      </c>
+      <c r="S13" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="T13" s="26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
+      <c r="S14" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="71">
+        <f t="array" ref="U14:Y14">TRANSPOSE(G3:G7)</f>
+        <v>19.99835666666667</v>
+      </c>
+      <c r="V14" s="71">
+        <v>20.020875999999998</v>
+      </c>
+      <c r="W14" s="71">
+        <v>19.863140666666666</v>
+      </c>
+      <c r="X14" s="71">
+        <v>20.115232666666667</v>
+      </c>
+      <c r="Y14" s="71">
+        <v>19.889080666666665</v>
+      </c>
+      <c r="AA14" s="71">
+        <v>19.948305666666666</v>
+      </c>
+      <c r="AB14" s="71">
+        <v>19.895390333333335</v>
+      </c>
+      <c r="AC14" s="71">
+        <v>19.898199000000002</v>
+      </c>
+      <c r="AD14" s="71">
+        <v>20.074282999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="65">
+        <v>31.25</v>
+      </c>
+      <c r="C15" s="65">
+        <v>3</v>
+      </c>
+      <c r="D15" s="65">
+        <v>0</v>
+      </c>
+      <c r="E15" s="65">
+        <v>1.0024555555555557E-2</v>
+      </c>
+      <c r="F15" s="65">
+        <v>1.0570055555555555E-2</v>
+      </c>
+      <c r="G15" s="65">
+        <v>46.813272232415727</v>
+      </c>
+      <c r="H15" s="65">
+        <v>45.115007004655496</v>
+      </c>
+      <c r="I15" s="65">
+        <v>19.965192717598594</v>
+      </c>
+      <c r="J15" s="65">
+        <v>21.428861307302665</v>
+      </c>
+      <c r="K15" s="65"/>
+      <c r="L15" s="65"/>
+      <c r="M15" s="65">
+        <v>10.728884735999999</v>
+      </c>
+      <c r="N15" s="65">
+        <v>7.4191514278795931E-2</v>
+      </c>
+      <c r="O15" s="65">
+        <f>M15/$M$15</f>
+        <v>1</v>
+      </c>
+      <c r="P15" s="69" t="s">
+        <v>188</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="T15" s="17"/>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B16" s="65">
+        <v>31.25</v>
+      </c>
+      <c r="C16" s="65">
+        <v>3</v>
+      </c>
+      <c r="D16" s="65">
+        <v>69.566000000000003</v>
+      </c>
+      <c r="E16" s="65">
+        <v>1.0024555555555557E-2</v>
+      </c>
+      <c r="F16" s="65">
+        <v>1.0570055555555555E-2</v>
+      </c>
+      <c r="G16" s="65">
+        <v>46.848783530878762</v>
+      </c>
+      <c r="H16" s="65">
+        <v>45.433250155957296</v>
+      </c>
+      <c r="I16" s="65">
+        <v>19.989925140361731</v>
+      </c>
+      <c r="J16" s="65">
+        <v>21.583000623829477</v>
+      </c>
+      <c r="K16" s="65"/>
+      <c r="L16" s="65"/>
+      <c r="M16" s="65">
+        <v>6.7713711627906985</v>
+      </c>
+      <c r="N16" s="65">
+        <v>0</v>
+      </c>
+      <c r="O16" s="65">
+        <f t="shared" ref="O16:O19" si="4">M16/$M$15</f>
+        <v>0.63113467330577711</v>
+      </c>
+      <c r="P16" s="69"/>
+      <c r="S16" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="T16" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U16" s="71">
+        <f t="array" ref="U16:Y16">TRANSPOSE(J3:J7)</f>
+        <v>45.745317333333332</v>
+      </c>
+      <c r="V16" s="71">
+        <v>45.949279999999995</v>
+      </c>
+      <c r="W16" s="71">
+        <v>45.720077333333336</v>
+      </c>
+      <c r="X16" s="71">
+        <v>45.758546666666668</v>
+      </c>
+      <c r="Y16" s="71">
+        <v>45.631227333333328</v>
+      </c>
+      <c r="AA16" s="71">
+        <v>21.060659666666666</v>
+      </c>
+      <c r="AB16" s="71">
+        <v>20.886816333333332</v>
+      </c>
+      <c r="AC16" s="71">
+        <v>20.737005333333332</v>
+      </c>
+      <c r="AD16" s="71">
+        <v>20.766840666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="65">
+        <v>31.25</v>
+      </c>
+      <c r="C17" s="65">
+        <v>3</v>
+      </c>
+      <c r="D17" s="65">
+        <v>141.60266666666666</v>
+      </c>
+      <c r="E17" s="65">
+        <v>1.0024555555555557E-2</v>
+      </c>
+      <c r="F17" s="65">
+        <v>1.0570055555555555E-2</v>
+      </c>
+      <c r="G17" s="65">
+        <v>46.810284463894057</v>
+      </c>
+      <c r="H17" s="65">
+        <v>46.127227258519227</v>
+      </c>
+      <c r="I17" s="65">
+        <v>19.900375117224076</v>
+      </c>
+      <c r="J17" s="65">
+        <v>21.569084088778226</v>
+      </c>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65">
+        <v>5.5270333439999995</v>
+      </c>
+      <c r="N17" s="65">
+        <v>0</v>
+      </c>
+      <c r="O17" s="65">
+        <f t="shared" si="4"/>
+        <v>0.51515450859998868</v>
+      </c>
+      <c r="P17" s="69"/>
+      <c r="S17" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="T17" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="U17" s="71">
+        <f t="array" ref="U17:Y17">TRANSPOSE(H3:H7)</f>
+        <v>20.394694666666666</v>
+      </c>
+      <c r="V17" s="71">
+        <v>20.706840999999997</v>
+      </c>
+      <c r="W17" s="71">
+        <v>20.617133666666664</v>
+      </c>
+      <c r="X17" s="71">
+        <v>20.743951333333332</v>
+      </c>
+      <c r="Y17" s="71">
+        <v>20.753770333333332</v>
+      </c>
+      <c r="AA17" s="71">
+        <v>45.504165</v>
+      </c>
+      <c r="AB17" s="71">
+        <v>45.49707033333334</v>
+      </c>
+      <c r="AC17" s="71">
+        <v>45.505756999999996</v>
+      </c>
+      <c r="AD17" s="71">
+        <v>45.912472999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="65">
+        <v>31.25</v>
+      </c>
+      <c r="C18" s="65">
+        <v>3</v>
+      </c>
+      <c r="D18" s="65">
+        <v>211.26733333333334</v>
+      </c>
+      <c r="E18" s="65">
+        <v>1.0024555555555557E-2</v>
+      </c>
+      <c r="F18" s="65">
+        <v>1.0570055555555555E-2</v>
+      </c>
+      <c r="G18" s="65">
+        <v>46.866582914572703</v>
+      </c>
+      <c r="H18" s="65">
+        <v>45.261652010050049</v>
+      </c>
+      <c r="I18" s="65">
+        <v>19.998618090452187</v>
+      </c>
+      <c r="J18" s="65">
+        <v>21.251664572864392</v>
+      </c>
+      <c r="K18" s="65"/>
+      <c r="L18" s="65"/>
+      <c r="M18" s="65">
+        <v>3.0934241280000001</v>
+      </c>
+      <c r="N18" s="65">
+        <v>0</v>
+      </c>
+      <c r="O18" s="65">
+        <f t="shared" si="4"/>
+        <v>0.28832671839788143</v>
+      </c>
+      <c r="P18" s="69"/>
+      <c r="S18" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="T18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="U18" s="70">
+        <f t="array" ref="U18:Y18">TRANSPOSE(M3:M7)</f>
+        <v>5.0019625728000001</v>
+      </c>
+      <c r="V18" s="70">
+        <v>4.4134104959999991</v>
+      </c>
+      <c r="W18" s="70">
+        <v>3.462614592</v>
+      </c>
+      <c r="X18" s="70">
+        <v>3.0054249984000001</v>
+      </c>
+      <c r="Y18" s="70">
+        <v>5.1545233151999996</v>
+      </c>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70">
+        <v>4.2218308607999999</v>
+      </c>
+      <c r="AB18" s="70">
+        <v>2.8030695167999999</v>
+      </c>
+      <c r="AC18" s="70">
+        <v>1.5553173503999997</v>
+      </c>
+      <c r="AD18" s="70">
+        <v>0.24622156800000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="65" t="s">
+        <v>189</v>
+      </c>
+      <c r="B19" s="65">
+        <v>31.25</v>
+      </c>
+      <c r="C19" s="65">
+        <v>3</v>
+      </c>
+      <c r="D19" s="65">
+        <v>281.44509999999997</v>
+      </c>
+      <c r="E19" s="65">
+        <v>1.0024555555555557E-2</v>
+      </c>
+      <c r="F19" s="65">
+        <v>1.0570055555555555E-2</v>
+      </c>
+      <c r="G19" s="65">
+        <v>47.081704781703998</v>
+      </c>
+      <c r="H19" s="65">
+        <v>45.950311850311486</v>
+      </c>
+      <c r="I19" s="65">
+        <v>19.971794871794781</v>
+      </c>
+      <c r="J19" s="65">
+        <v>21.224081774082016</v>
+      </c>
+      <c r="K19" s="65"/>
+      <c r="L19" s="65"/>
+      <c r="M19" s="65">
+        <v>0.32185294698240002</v>
+      </c>
+      <c r="N19" s="65">
+        <v>0</v>
+      </c>
+      <c r="O19" s="65">
+        <f t="shared" si="4"/>
+        <v>2.9998732850810266E-2</v>
+      </c>
+      <c r="P19" s="69"/>
+      <c r="S19" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="T19" s="17"/>
+    </row>
+    <row r="22" spans="1:31" ht="16.5">
+      <c r="S22" s="76" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="S23" s="62" t="str">
+        <f t="array" ref="S23:AE35">TRANSPOSE(A1:N13)</f>
+        <v>Membrane</v>
+      </c>
+      <c r="T23" s="62">
+        <v>0</v>
+      </c>
+      <c r="U23" s="62" t="str">
+        <v>#3PVDF</v>
+      </c>
+      <c r="V23" s="62" t="str">
+        <v>#3PVDF</v>
+      </c>
+      <c r="W23" s="62" t="str">
+        <v>#3PVDF</v>
+      </c>
+      <c r="X23" s="62" t="str">
+        <v>#3PVDF</v>
+      </c>
+      <c r="Y23" s="62" t="str">
+        <v>#3PVDF</v>
+      </c>
+      <c r="Z23" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="62" t="str">
+        <v>#1PTFE</v>
+      </c>
+      <c r="AB23" s="62" t="str">
+        <v>#1PTFE</v>
+      </c>
+      <c r="AC23" s="62" t="str">
+        <v>#1PTFE</v>
+      </c>
+      <c r="AD23" s="62" t="str">
+        <v>#1PTFE</v>
+      </c>
+      <c r="AE23" s="62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="S24" s="62" t="str">
+        <v>Membrane area</v>
+      </c>
+      <c r="T24" s="62" t="str">
+        <v>cm2</v>
+      </c>
+      <c r="U24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="V24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="W24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="X24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="Y24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="Z24" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AB24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AC24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AD24" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AE24" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="S25" s="62" t="str">
+        <v>Cross section area</v>
+      </c>
+      <c r="T25" s="62" t="str">
+        <v>cm2</v>
+      </c>
+      <c r="U25" s="62">
+        <v>3</v>
+      </c>
+      <c r="V25" s="62">
+        <v>3</v>
+      </c>
+      <c r="W25" s="62">
+        <v>3</v>
+      </c>
+      <c r="X25" s="62">
+        <v>3</v>
+      </c>
+      <c r="Y25" s="62">
+        <v>3</v>
+      </c>
+      <c r="Z25" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AC25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AD25" s="62">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="S26" s="62" t="str">
+        <v>Original concentration</v>
+      </c>
+      <c r="T26" s="62" t="str">
+        <v>g/l</v>
+      </c>
+      <c r="U26" s="62">
+        <v>69.566000000000003</v>
+      </c>
+      <c r="V26" s="62">
+        <v>141.60266666666666</v>
+      </c>
+      <c r="W26" s="62">
+        <v>211.26733333333334</v>
+      </c>
+      <c r="X26" s="62">
+        <v>281.44509999999997</v>
+      </c>
+      <c r="Y26" s="62">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="62">
+        <v>69.53543333333333</v>
+      </c>
+      <c r="AC26" s="62">
+        <v>141.39226666666667</v>
+      </c>
+      <c r="AD26" s="62">
+        <v>211.26166666666666</v>
+      </c>
+      <c r="AE26" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="S27" s="62" t="str">
+        <v>Feed revolution</v>
+      </c>
+      <c r="T27" s="62" t="str">
+        <v>rpm</v>
+      </c>
+      <c r="U27" s="62">
+        <v>98</v>
+      </c>
+      <c r="V27" s="62">
+        <v>98</v>
+      </c>
+      <c r="W27" s="62">
+        <v>98</v>
+      </c>
+      <c r="X27" s="62">
+        <v>98</v>
+      </c>
+      <c r="Y27" s="62">
+        <v>98</v>
+      </c>
+      <c r="Z27" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="62">
+        <v>98</v>
+      </c>
+      <c r="AB27" s="62">
+        <v>98</v>
+      </c>
+      <c r="AC27" s="62">
+        <v>98</v>
+      </c>
+      <c r="AD27" s="62">
+        <v>98</v>
+      </c>
+      <c r="AE27" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="S28" s="62" t="str">
+        <v>Permeate revolution</v>
+      </c>
+      <c r="T28" s="62" t="str">
+        <v>rpm</v>
+      </c>
+      <c r="U28" s="62">
+        <v>94</v>
+      </c>
+      <c r="V28" s="62">
+        <v>94</v>
+      </c>
+      <c r="W28" s="62">
+        <v>94</v>
+      </c>
+      <c r="X28" s="62">
+        <v>94</v>
+      </c>
+      <c r="Y28" s="62">
+        <v>94</v>
+      </c>
+      <c r="Z28" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="62">
+        <v>94</v>
+      </c>
+      <c r="AB28" s="62">
+        <v>94</v>
+      </c>
+      <c r="AC28" s="62">
+        <v>94</v>
+      </c>
+      <c r="AD28" s="62">
+        <v>94</v>
+      </c>
+      <c r="AE28" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="S29" s="62" t="str">
+        <v xml:space="preserve"> Tpin</v>
+      </c>
+      <c r="T29" s="62" t="str">
+        <v>℃</v>
+      </c>
+      <c r="U29" s="62">
+        <v>19.99835666666667</v>
+      </c>
+      <c r="V29" s="62">
+        <v>20.020875999999998</v>
+      </c>
+      <c r="W29" s="62">
+        <v>19.863140666666666</v>
+      </c>
+      <c r="X29" s="62">
+        <v>20.115232666666667</v>
+      </c>
+      <c r="Y29" s="62">
+        <v>19.889080666666665</v>
+      </c>
+      <c r="Z29" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="62">
+        <v>19.948305666666666</v>
+      </c>
+      <c r="AB29" s="62">
+        <v>19.895390333333335</v>
+      </c>
+      <c r="AC29" s="62">
+        <v>19.898199000000002</v>
+      </c>
+      <c r="AD29" s="62">
+        <v>20.074282999999998</v>
+      </c>
+      <c r="AE29" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="S30" s="62" t="str">
+        <v>Tpout</v>
+      </c>
+      <c r="T30" s="62" t="str">
+        <v>℃</v>
+      </c>
+      <c r="U30" s="62">
+        <v>20.394694666666666</v>
+      </c>
+      <c r="V30" s="62">
+        <v>20.706840999999997</v>
+      </c>
+      <c r="W30" s="62">
+        <v>20.617133666666664</v>
+      </c>
+      <c r="X30" s="62">
+        <v>20.743951333333332</v>
+      </c>
+      <c r="Y30" s="62">
+        <v>20.753770333333332</v>
+      </c>
+      <c r="Z30" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="62">
+        <v>21.060659666666666</v>
+      </c>
+      <c r="AB30" s="62">
+        <v>20.886816333333332</v>
+      </c>
+      <c r="AC30" s="62">
+        <v>20.737005333333332</v>
+      </c>
+      <c r="AD30" s="62">
+        <v>20.766840666666663</v>
+      </c>
+      <c r="AE30" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="S31" s="62" t="str">
+        <v>Tfin</v>
+      </c>
+      <c r="T31" s="62" t="str">
+        <v>℃</v>
+      </c>
+      <c r="U31" s="62">
+        <v>46.787444999999998</v>
+      </c>
+      <c r="V31" s="62">
+        <v>46.972490000000001</v>
+      </c>
+      <c r="W31" s="62">
+        <v>46.850017999999999</v>
+      </c>
+      <c r="X31" s="62">
+        <v>46.907367000000001</v>
+      </c>
+      <c r="Y31" s="62">
+        <v>46.941147000000001</v>
+      </c>
+      <c r="Z31" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="62">
+        <v>46.908647666666667</v>
+      </c>
+      <c r="AB31" s="62">
+        <v>46.87154833333333</v>
+      </c>
+      <c r="AC31" s="62">
+        <v>46.776664000000004</v>
+      </c>
+      <c r="AD31" s="62">
+        <v>47.191884333333327</v>
+      </c>
+      <c r="AE31" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="S32" s="62" t="str">
+        <v>Tfout</v>
+      </c>
+      <c r="T32" s="62" t="str">
+        <v>℃</v>
+      </c>
+      <c r="U32" s="62">
+        <v>45.745317333333332</v>
+      </c>
+      <c r="V32" s="62">
+        <v>45.949279999999995</v>
+      </c>
+      <c r="W32" s="62">
+        <v>45.720077333333336</v>
+      </c>
+      <c r="X32" s="62">
+        <v>45.758546666666668</v>
+      </c>
+      <c r="Y32" s="62">
+        <v>45.631227333333328</v>
+      </c>
+      <c r="Z32" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="62">
+        <v>45.504165</v>
+      </c>
+      <c r="AB32" s="62">
+        <v>45.49707033333334</v>
+      </c>
+      <c r="AC32" s="62">
+        <v>45.505756999999996</v>
+      </c>
+      <c r="AD32" s="62">
+        <v>45.912472999999999</v>
+      </c>
+      <c r="AE32" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="19:31">
+      <c r="S33" s="62" t="str">
+        <v>Measured flux(g/s)</v>
+      </c>
+      <c r="T33" s="62" t="str">
+        <v>g/s</v>
+      </c>
+      <c r="U33" s="62">
+        <v>4.3419814000000001E-3</v>
+      </c>
+      <c r="V33" s="62">
+        <v>3.8310854999999999E-3</v>
+      </c>
+      <c r="W33" s="62">
+        <v>3.0057418333333335E-3</v>
+      </c>
+      <c r="X33" s="62">
+        <v>2.6088758666666669E-3</v>
+      </c>
+      <c r="Y33" s="62">
+        <v>4.4744125999999999E-3</v>
+      </c>
+      <c r="Z33" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="62">
+        <v>3.6647837333333333E-3</v>
+      </c>
+      <c r="AB33" s="62">
+        <v>2.4332200666666668E-3</v>
+      </c>
+      <c r="AC33" s="62">
+        <v>1.3501018666666666E-3</v>
+      </c>
+      <c r="AD33" s="62">
+        <v>2.1373400000000001E-4</v>
+      </c>
+      <c r="AE33" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="19:31">
+      <c r="S34" s="62" t="str">
+        <v>std</v>
+      </c>
+      <c r="T34" s="62" t="str">
+        <v>g/s</v>
+      </c>
+      <c r="U34" s="62">
+        <v>2.1969806244835174E-4</v>
+      </c>
+      <c r="V34" s="62">
+        <v>2.8011125545145457E-4</v>
+      </c>
+      <c r="W34" s="62">
+        <v>1.264932789073133E-4</v>
+      </c>
+      <c r="X34" s="62">
+        <v>4.0453452375332879E-5</v>
+      </c>
+      <c r="Y34" s="62">
+        <v>1.6893516620251068E-4</v>
+      </c>
+      <c r="Z34" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="62">
+        <v>6.7665665921421586E-4</v>
+      </c>
+      <c r="AB34" s="62">
+        <v>1.5113969249675374E-4</v>
+      </c>
+      <c r="AC34" s="62">
+        <v>1.1978061728461465E-4</v>
+      </c>
+      <c r="AD34" s="62">
+        <v>1.0830301265980553E-4</v>
+      </c>
+      <c r="AE34" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="19:31">
+      <c r="S35" s="62" t="str">
+        <v>Flux</v>
+      </c>
+      <c r="T35" s="62" t="str">
+        <v>kg/m2 h</v>
+      </c>
+      <c r="U35" s="62">
+        <v>5.0019625728000001</v>
+      </c>
+      <c r="V35" s="62">
+        <v>4.4134104959999991</v>
+      </c>
+      <c r="W35" s="62">
+        <v>3.462614592</v>
+      </c>
+      <c r="X35" s="62">
+        <v>3.0054249984000001</v>
+      </c>
+      <c r="Y35" s="62">
+        <v>5.1545233151999996</v>
+      </c>
+      <c r="Z35" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="62">
+        <v>4.2218308607999999</v>
+      </c>
+      <c r="AB35" s="62">
+        <v>2.8030695167999999</v>
+      </c>
+      <c r="AC35" s="62">
+        <v>1.5553173503999997</v>
+      </c>
+      <c r="AD35" s="62">
+        <v>0.24622156800000003</v>
+      </c>
+      <c r="AE35" s="62" t="e">
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="19:31" ht="16.5">
+      <c r="S37" s="76" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="19:31">
+      <c r="S38" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="T38" s="62">
+        <v>0</v>
+      </c>
+      <c r="U38" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="V38" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="W38" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="X38" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y38" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="AA38" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="AB38" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC38" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD38" s="62" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="39" spans="19:31">
+      <c r="S39" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="T39" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="U39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="V39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="W39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="X39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="Y39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AA39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AB39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AC39" s="62">
+        <v>31.25</v>
+      </c>
+      <c r="AD39" s="62">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="40" spans="19:31">
+      <c r="S40" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="T40" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="U40" s="62">
+        <v>3</v>
+      </c>
+      <c r="V40" s="62">
+        <v>3</v>
+      </c>
+      <c r="W40" s="62">
+        <v>3</v>
+      </c>
+      <c r="X40" s="62">
+        <v>3</v>
+      </c>
+      <c r="Y40" s="62">
+        <v>3</v>
+      </c>
+      <c r="AA40" s="62">
+        <v>3</v>
+      </c>
+      <c r="AB40" s="62">
+        <v>3</v>
+      </c>
+      <c r="AC40" s="62">
+        <v>3</v>
+      </c>
+      <c r="AD40" s="62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="19:31">
+      <c r="S41" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="T41" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="U41" s="62">
+        <v>69.566000000000003</v>
+      </c>
+      <c r="V41" s="62">
+        <v>141.60266666666666</v>
+      </c>
+      <c r="W41" s="62">
+        <v>211.26733333333334</v>
+      </c>
+      <c r="X41" s="62">
+        <v>281.44509999999997</v>
+      </c>
+      <c r="Y41" s="62">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="62">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="62">
+        <v>69.53543333333333</v>
+      </c>
+      <c r="AC41" s="62">
+        <v>141.39226666666667</v>
+      </c>
+      <c r="AD41" s="62">
+        <v>211.26166666666666</v>
+      </c>
+    </row>
+    <row r="42" spans="19:31">
+      <c r="S42" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="T42" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="U42" s="62">
+        <v>98</v>
+      </c>
+      <c r="V42" s="62">
+        <v>98</v>
+      </c>
+      <c r="W42" s="62">
+        <v>98</v>
+      </c>
+      <c r="X42" s="62">
+        <v>98</v>
+      </c>
+      <c r="Y42" s="62">
+        <v>98</v>
+      </c>
+      <c r="AA42" s="62">
+        <v>98</v>
+      </c>
+      <c r="AB42" s="62">
+        <v>98</v>
+      </c>
+      <c r="AC42" s="62">
+        <v>98</v>
+      </c>
+      <c r="AD42" s="62">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="19:31">
+      <c r="S43" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="T43" s="62" t="s">
+        <v>61</v>
+      </c>
+      <c r="U43" s="62">
+        <v>94</v>
+      </c>
+      <c r="V43" s="62">
+        <v>94</v>
+      </c>
+      <c r="W43" s="62">
+        <v>94</v>
+      </c>
+      <c r="X43" s="62">
+        <v>94</v>
+      </c>
+      <c r="Y43" s="62">
+        <v>94</v>
+      </c>
+      <c r="AA43" s="62">
+        <v>94</v>
+      </c>
+      <c r="AB43" s="62">
+        <v>94</v>
+      </c>
+      <c r="AC43" s="62">
+        <v>94</v>
+      </c>
+      <c r="AD43" s="62">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="19:31">
+      <c r="S44" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="T44" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="U44" s="62">
+        <v>19.99835666666667</v>
+      </c>
+      <c r="V44" s="62">
+        <v>20.020875999999998</v>
+      </c>
+      <c r="W44" s="62">
+        <v>19.863140666666666</v>
+      </c>
+      <c r="X44" s="62">
+        <v>20.115232666666667</v>
+      </c>
+      <c r="Y44" s="62">
+        <v>19.889080666666665</v>
+      </c>
+      <c r="AA44" s="62">
+        <v>19.948305666666666</v>
+      </c>
+      <c r="AB44" s="62">
+        <v>19.895390333333335</v>
+      </c>
+      <c r="AC44" s="62">
+        <v>19.898199000000002</v>
+      </c>
+      <c r="AD44" s="62">
+        <v>20.074282999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="19:31">
+      <c r="S45" s="62" t="s">
+        <v>201</v>
+      </c>
+      <c r="T45" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="U45" s="62">
+        <v>20.394694666666666</v>
+      </c>
+      <c r="V45" s="62">
+        <v>20.706840999999997</v>
+      </c>
+      <c r="W45" s="62">
+        <v>20.617133666666664</v>
+      </c>
+      <c r="X45" s="62">
+        <v>20.743951333333332</v>
+      </c>
+      <c r="Y45" s="62">
+        <v>20.753770333333332</v>
+      </c>
+      <c r="AA45" s="62">
+        <v>21.060659666666666</v>
+      </c>
+      <c r="AB45" s="62">
+        <v>20.886816333333332</v>
+      </c>
+      <c r="AC45" s="62">
+        <v>20.737005333333332</v>
+      </c>
+      <c r="AD45" s="62">
+        <v>20.766840666666663</v>
+      </c>
+    </row>
+    <row r="46" spans="19:31">
+      <c r="S46" s="62" t="s">
+        <v>202</v>
+      </c>
+      <c r="T46" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="U46" s="62">
+        <v>46.787444999999998</v>
+      </c>
+      <c r="V46" s="62">
+        <v>46.972490000000001</v>
+      </c>
+      <c r="W46" s="62">
+        <v>46.850017999999999</v>
+      </c>
+      <c r="X46" s="62">
+        <v>46.907367000000001</v>
+      </c>
+      <c r="Y46" s="62">
+        <v>46.941147000000001</v>
+      </c>
+      <c r="AA46" s="62">
+        <v>46.908647666666667</v>
+      </c>
+      <c r="AB46" s="62">
+        <v>46.87154833333333</v>
+      </c>
+      <c r="AC46" s="62">
+        <v>46.776664000000004</v>
+      </c>
+      <c r="AD46" s="62">
+        <v>47.191884333333327</v>
+      </c>
+    </row>
+    <row r="47" spans="19:31">
+      <c r="S47" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="T47" s="62" t="s">
+        <v>200</v>
+      </c>
+      <c r="U47" s="62">
+        <v>45.745317333333332</v>
+      </c>
+      <c r="V47" s="62">
+        <v>45.949279999999995</v>
+      </c>
+      <c r="W47" s="62">
+        <v>45.720077333333336</v>
+      </c>
+      <c r="X47" s="62">
+        <v>45.758546666666668</v>
+      </c>
+      <c r="Y47" s="62">
+        <v>45.631227333333328</v>
+      </c>
+      <c r="AA47" s="62">
+        <v>45.504165</v>
+      </c>
+      <c r="AB47" s="62">
+        <v>45.49707033333334</v>
+      </c>
+      <c r="AC47" s="62">
+        <v>45.505756999999996</v>
+      </c>
+      <c r="AD47" s="62">
+        <v>45.912472999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="19:31">
+      <c r="S48" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="T48" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="U48" s="62">
+        <v>4.3419814000000001E-3</v>
+      </c>
+      <c r="V48" s="62">
+        <v>3.8310854999999999E-3</v>
+      </c>
+      <c r="W48" s="62">
+        <v>3.0057418333333335E-3</v>
+      </c>
+      <c r="X48" s="62">
+        <v>2.6088758666666669E-3</v>
+      </c>
+      <c r="Y48" s="62">
+        <v>4.4744125999999999E-3</v>
+      </c>
+      <c r="AA48" s="62">
+        <v>3.6647837333333333E-3</v>
+      </c>
+      <c r="AB48" s="62">
+        <v>2.4332200666666668E-3</v>
+      </c>
+      <c r="AC48" s="62">
+        <v>1.3501018666666666E-3</v>
+      </c>
+      <c r="AD48" s="62">
+        <v>2.1373400000000001E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="19:30">
+      <c r="S49" s="62" t="s">
+        <v>205</v>
+      </c>
+      <c r="T49" s="62" t="s">
+        <v>204</v>
+      </c>
+      <c r="U49" s="62">
+        <v>2.1969806244835174E-4</v>
+      </c>
+      <c r="V49" s="62">
+        <v>2.8011125545145457E-4</v>
+      </c>
+      <c r="W49" s="62">
+        <v>1.264932789073133E-4</v>
+      </c>
+      <c r="X49" s="62">
+        <v>4.0453452375332879E-5</v>
+      </c>
+      <c r="Y49" s="62">
+        <v>1.6893516620251068E-4</v>
+      </c>
+      <c r="AA49" s="62">
+        <v>6.7665665921421586E-4</v>
+      </c>
+      <c r="AB49" s="62">
+        <v>1.5113969249675374E-4</v>
+      </c>
+      <c r="AC49" s="62">
+        <v>1.1978061728461465E-4</v>
+      </c>
+      <c r="AD49" s="62">
+        <v>1.0830301265980553E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="19:30">
+      <c r="S50" s="62" t="s">
+        <v>206</v>
+      </c>
+      <c r="T50" s="62" t="s">
+        <v>207</v>
+      </c>
+      <c r="U50" s="62">
+        <v>5.0019625728000001</v>
+      </c>
+      <c r="V50" s="62">
+        <v>4.4134104959999991</v>
+      </c>
+      <c r="W50" s="62">
+        <v>3.462614592</v>
+      </c>
+      <c r="X50" s="62">
+        <v>3.0054249984000001</v>
+      </c>
+      <c r="Y50" s="62">
+        <v>5.1545233151999996</v>
+      </c>
+      <c r="AA50" s="62">
+        <v>4.2218308607999999</v>
+      </c>
+      <c r="AB50" s="62">
+        <v>2.8030695167999999</v>
+      </c>
+      <c r="AC50" s="62">
+        <v>1.5553173503999997</v>
+      </c>
+      <c r="AD50" s="62">
+        <v>0.24622156800000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P15:P19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P13" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E32"/>
   <sheetViews>
@@ -10772,13 +15974,13 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="19" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA36"/>
   <sheetViews>
